--- a/MFG/V1.3_20230605/SMT/STARRYSKY_XY_JLC.xlsx
+++ b/MFG/V1.3_20230605/SMT/STARRYSKY_XY_JLC.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="450">
   <si>
     <t>Designator</t>
   </si>
@@ -1375,15 +1375,18 @@
     <t>U8</t>
   </si>
   <si>
-    <t>SODIMM-204-2R00X0R35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Footprint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SODIMM-204-2R00X0R35</t>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1749,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
+      <selection activeCell="A560" sqref="A560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1780,38 +1783,38 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>439</v>
       </c>
       <c r="B2" s="1">
-        <v>3.8938000000000001</v>
+        <v>55.88</v>
       </c>
       <c r="C2" s="1">
-        <v>74.610699999999994</v>
+        <v>35.56</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>96.116900000000001</v>
+        <v>3.8938000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>65.801199999999994</v>
+        <v>74.610699999999994</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1820,15 +1823,15 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>94.317099999999996</v>
+        <v>96.116900000000001</v>
       </c>
       <c r="C4" s="1">
         <v>65.801199999999994</v>
@@ -1837,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1845,19 +1848,19 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>97.367599999999996</v>
+        <v>94.317099999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>80.394800000000004</v>
+        <v>65.801199999999994</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1865,13 +1868,13 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>100.56010000000001</v>
+        <v>97.367599999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>79.083200000000005</v>
+        <v>80.394800000000004</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -1885,19 +1888,19 @@
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>96.177599999999998</v>
+        <v>100.56010000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>25.5427</v>
+        <v>79.083200000000005</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1905,10 +1908,10 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>95.177400000000006</v>
+        <v>96.177599999999998</v>
       </c>
       <c r="C8" s="1">
         <v>25.5427</v>
@@ -1925,19 +1928,19 @@
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>19.109400000000001</v>
+        <v>95.177400000000006</v>
       </c>
       <c r="C9" s="1">
-        <v>24.648399999999999</v>
+        <v>25.5427</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1945,19 +1948,19 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>19.109400000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>28.8491</v>
+        <v>24.648399999999999</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1965,19 +1968,19 @@
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>20.524999999999999</v>
+        <v>19.109400000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>21.861000000000001</v>
+        <v>28.8491</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1985,19 +1988,19 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>28.5852</v>
+        <v>20.524999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>24.049700000000001</v>
+        <v>21.861000000000001</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -2005,19 +2008,19 @@
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>106.2777</v>
+        <v>28.5852</v>
       </c>
       <c r="C13" s="1">
-        <v>25.5427</v>
+        <v>24.049700000000001</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -2025,19 +2028,19 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>23.116</v>
+        <v>106.2777</v>
       </c>
       <c r="C14" s="1">
-        <v>31.3367</v>
+        <v>25.5427</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -2045,19 +2048,19 @@
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
-        <v>19.109400000000001</v>
+        <v>23.116</v>
       </c>
       <c r="C15" s="1">
-        <v>29.849299999999999</v>
+        <v>31.3367</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -2065,19 +2068,19 @@
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>96.177599999999998</v>
+        <v>19.109400000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>31.384699999999999</v>
+        <v>29.849299999999999</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -2085,10 +2088,10 @@
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
-        <v>106.2777</v>
+        <v>96.177599999999998</v>
       </c>
       <c r="C17" s="1">
         <v>31.384699999999999</v>
@@ -2105,10 +2108,10 @@
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
-        <v>95.177400000000006</v>
+        <v>106.2777</v>
       </c>
       <c r="C18" s="1">
         <v>31.384699999999999</v>
@@ -2125,19 +2128,19 @@
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
-        <v>96.216700000000003</v>
+        <v>95.177400000000006</v>
       </c>
       <c r="C19" s="1">
-        <v>11.856199999999999</v>
+        <v>31.384699999999999</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -2145,13 +2148,13 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>96.216700000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>12.8565</v>
+        <v>11.856199999999999</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
@@ -2165,19 +2168,19 @@
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
-        <v>96.177599999999998</v>
+        <v>96.216700000000003</v>
       </c>
       <c r="C21" s="1">
-        <v>19.700700000000001</v>
+        <v>12.8565</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -2185,10 +2188,10 @@
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1">
-        <v>95.177400000000006</v>
+        <v>96.177599999999998</v>
       </c>
       <c r="C22" s="1">
         <v>19.700700000000001</v>
@@ -2205,10 +2208,10 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1">
-        <v>106.2777</v>
+        <v>95.177400000000006</v>
       </c>
       <c r="C23" s="1">
         <v>19.700700000000001</v>
@@ -2225,19 +2228,19 @@
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1">
-        <v>22.883400000000002</v>
+        <v>106.2777</v>
       </c>
       <c r="C24" s="1">
-        <v>17.028400000000001</v>
+        <v>19.700700000000001</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>9</v>
@@ -2245,19 +2248,19 @@
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1">
-        <v>93.03</v>
+        <v>22.883400000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>36.685499999999998</v>
+        <v>17.028400000000001</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>9</v>
@@ -2265,13 +2268,13 @@
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1">
-        <v>17.652699999999999</v>
+        <v>93.03</v>
       </c>
       <c r="C26" s="1">
-        <v>50.837800000000001</v>
+        <v>36.685499999999998</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
@@ -2285,13 +2288,13 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1">
-        <v>90.158600000000007</v>
+        <v>17.652699999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>67.612499999999997</v>
+        <v>50.837800000000001</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
@@ -2305,19 +2308,19 @@
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1">
-        <v>52.372999999999998</v>
+        <v>90.158600000000007</v>
       </c>
       <c r="C28" s="1">
-        <v>68.813699999999997</v>
+        <v>67.612499999999997</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>9</v>
@@ -2325,10 +2328,10 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1">
-        <v>51.372799999999998</v>
+        <v>52.372999999999998</v>
       </c>
       <c r="C29" s="1">
         <v>68.813699999999997</v>
@@ -2345,19 +2348,19 @@
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1">
-        <v>7.8155999999999999</v>
+        <v>51.372799999999998</v>
       </c>
       <c r="C30" s="1">
-        <v>16.340800000000002</v>
+        <v>68.813699999999997</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>9</v>
@@ -2365,19 +2368,19 @@
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1">
-        <v>15.879099999999999</v>
+        <v>7.8155999999999999</v>
       </c>
       <c r="C31" s="1">
-        <v>24.107900000000001</v>
+        <v>16.340800000000002</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>
@@ -2385,19 +2388,19 @@
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>15.879099999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>28.108899999999998</v>
+        <v>24.107900000000001</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>9</v>
@@ -2405,13 +2408,13 @@
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
-        <v>18.409400000000002</v>
+        <v>15.879099999999999</v>
       </c>
       <c r="C33" s="1">
-        <v>25.948599999999999</v>
+        <v>28.108899999999998</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
@@ -2420,18 +2423,18 @@
         <v>180</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>18.409400000000002</v>
       </c>
       <c r="C34" s="1">
-        <v>27.5488</v>
+        <v>25.948599999999999</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
@@ -2445,13 +2448,13 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1">
-        <v>35.0642</v>
+        <v>18.409400000000002</v>
       </c>
       <c r="C35" s="1">
-        <v>4.7324999999999999</v>
+        <v>27.5488</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>5</v>
@@ -2460,15 +2463,15 @@
         <v>180</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1">
-        <v>36.863999999999997</v>
+        <v>35.0642</v>
       </c>
       <c r="C36" s="1">
         <v>4.7324999999999999</v>
@@ -2477,7 +2480,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>9</v>
@@ -2485,19 +2488,19 @@
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1">
-        <v>79.717399999999998</v>
+        <v>36.863999999999997</v>
       </c>
       <c r="C37" s="1">
-        <v>71.674000000000007</v>
+        <v>4.7324999999999999</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>9</v>
@@ -2505,53 +2508,53 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1">
-        <v>97.566699999999997</v>
+        <v>79.717399999999998</v>
       </c>
       <c r="C38" s="1">
-        <v>8.2034000000000002</v>
+        <v>71.674000000000007</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1">
-        <v>96.916700000000006</v>
+        <v>97.566699999999997</v>
       </c>
       <c r="C39" s="1">
-        <v>10.555999999999999</v>
+        <v>8.2034000000000002</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1">
-        <v>107.95</v>
+        <v>96.916700000000006</v>
       </c>
       <c r="C40" s="1">
-        <v>82.143600000000006</v>
+        <v>10.555999999999999</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>
@@ -2560,15 +2563,15 @@
         <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1">
-        <v>3.81</v>
+        <v>107.95</v>
       </c>
       <c r="C41" s="1">
         <v>82.143600000000006</v>
@@ -2585,13 +2588,13 @@
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1">
         <v>3.81</v>
       </c>
       <c r="C42" s="1">
-        <v>3.81</v>
+        <v>82.143600000000006</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>5</v>
@@ -2605,10 +2608,10 @@
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1">
-        <v>107.95</v>
+        <v>3.81</v>
       </c>
       <c r="C43" s="1">
         <v>3.81</v>
@@ -2625,13 +2628,13 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1">
-        <v>63.295000000000002</v>
+        <v>107.95</v>
       </c>
       <c r="C44" s="1">
-        <v>5.2042000000000002</v>
+        <v>3.81</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>5</v>
@@ -2640,78 +2643,78 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1">
-        <v>14.7521</v>
+        <v>63.295000000000002</v>
       </c>
       <c r="C45" s="1">
-        <v>50.113700000000001</v>
+        <v>5.2042000000000002</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1">
-        <v>79.722700000000003</v>
+        <v>14.7521</v>
       </c>
       <c r="C46" s="1">
-        <v>74.878900000000002</v>
+        <v>50.113700000000001</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1">
-        <v>86.847700000000003</v>
+        <v>79.722700000000003</v>
       </c>
       <c r="C47" s="1">
-        <v>31.183299999999999</v>
+        <v>74.878900000000002</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" s="1">
-        <v>69.395799999999994</v>
+        <v>86.847700000000003</v>
       </c>
       <c r="C48" s="1">
-        <v>79.403999999999996</v>
+        <v>31.183299999999999</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>5</v>
@@ -2720,18 +2723,18 @@
         <v>180</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1">
-        <v>45.085000000000001</v>
+        <v>69.395799999999994</v>
       </c>
       <c r="C49" s="1">
-        <v>74.828400000000002</v>
+        <v>79.403999999999996</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>5</v>
@@ -2740,58 +2743,58 @@
         <v>180</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" s="1">
-        <v>64.146199999999993</v>
+        <v>45.085000000000001</v>
       </c>
       <c r="C50" s="1">
-        <v>65.691000000000003</v>
+        <v>74.828400000000002</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" s="1">
-        <v>9.1493000000000002</v>
+        <v>64.146199999999993</v>
       </c>
       <c r="C51" s="1">
-        <v>35.493699999999997</v>
+        <v>65.691000000000003</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B52" s="1">
         <v>9.1493000000000002</v>
       </c>
       <c r="C52" s="1">
-        <v>24.891500000000001</v>
+        <v>35.493699999999997</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>5</v>
@@ -2805,33 +2808,33 @@
     </row>
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" s="1">
-        <v>16.5519</v>
+        <v>9.1493000000000002</v>
       </c>
       <c r="C53" s="1">
-        <v>32.662599999999998</v>
+        <v>24.891500000000001</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="1">
         <v>16.5519</v>
       </c>
       <c r="C54" s="1">
-        <v>35.162500000000001</v>
+        <v>32.662599999999998</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>5</v>
@@ -2845,13 +2848,13 @@
     </row>
     <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" s="1">
-        <v>73.990200000000002</v>
+        <v>16.5519</v>
       </c>
       <c r="C55" s="1">
-        <v>5.2069999999999999</v>
+        <v>35.162500000000001</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>5</v>
@@ -2860,18 +2863,18 @@
         <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="1">
-        <v>53.253100000000003</v>
+        <v>73.990200000000002</v>
       </c>
       <c r="C56" s="1">
-        <v>5.9682000000000004</v>
+        <v>5.2069999999999999</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>5</v>
@@ -2880,38 +2883,38 @@
         <v>0</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B57" s="1">
-        <v>110.3503</v>
+        <v>53.253100000000003</v>
       </c>
       <c r="C57" s="1">
-        <v>58.119500000000002</v>
+        <v>5.9682000000000004</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E57" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1">
-        <v>5.3170000000000002</v>
+        <v>110.3503</v>
       </c>
       <c r="C58" s="1">
-        <v>64.760900000000007</v>
+        <v>58.119500000000002</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>5</v>
@@ -2920,38 +2923,38 @@
         <v>270</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="1">
-        <v>18.0411</v>
+        <v>5.3170000000000002</v>
       </c>
       <c r="C59" s="1">
-        <v>81.309200000000004</v>
+        <v>64.760900000000007</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B60" s="1">
-        <v>98.060299999999998</v>
+        <v>18.0411</v>
       </c>
       <c r="C60" s="1">
-        <v>79.083200000000005</v>
+        <v>81.309200000000004</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>5</v>
@@ -2960,18 +2963,18 @@
         <v>0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" s="1">
-        <v>18.178999999999998</v>
+        <v>98.060299999999998</v>
       </c>
       <c r="C61" s="1">
-        <v>72.844700000000003</v>
+        <v>79.083200000000005</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>5</v>
@@ -2980,24 +2983,24 @@
         <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B62" s="1">
-        <v>40.712400000000002</v>
+        <v>18.178999999999998</v>
       </c>
       <c r="C62" s="1">
-        <v>1.9975000000000001</v>
+        <v>72.844700000000003</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>82</v>
@@ -3005,19 +3008,19 @@
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B63" s="1">
-        <v>86.225099999999998</v>
+        <v>40.712400000000002</v>
       </c>
       <c r="C63" s="1">
-        <v>63.308199999999999</v>
+        <v>1.9975000000000001</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>82</v>
@@ -3025,13 +3028,13 @@
     </row>
     <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" s="1">
-        <v>86.203500000000005</v>
+        <v>86.225099999999998</v>
       </c>
       <c r="C64" s="1">
-        <v>64.658500000000004</v>
+        <v>63.308199999999999</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>5</v>
@@ -3045,33 +3048,33 @@
     </row>
     <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" s="1">
-        <v>94.156000000000006</v>
+        <v>86.203500000000005</v>
       </c>
       <c r="C65" s="1">
-        <v>51.412599999999998</v>
+        <v>64.658500000000004</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B66" s="1">
         <v>94.156000000000006</v>
       </c>
       <c r="C66" s="1">
-        <v>58.1447</v>
+        <v>51.412599999999998</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>5</v>
@@ -3085,10 +3088,10 @@
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="1">
-        <v>89.003399999999999</v>
+        <v>94.156000000000006</v>
       </c>
       <c r="C67" s="1">
         <v>58.1447</v>
@@ -3105,13 +3108,13 @@
     </row>
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" s="1">
         <v>89.003399999999999</v>
       </c>
       <c r="C68" s="1">
-        <v>51.412599999999998</v>
+        <v>58.1447</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>5</v>
@@ -3125,13 +3128,13 @@
     </row>
     <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" s="1">
-        <v>81.672700000000006</v>
+        <v>89.003399999999999</v>
       </c>
       <c r="C69" s="1">
-        <v>58.1447</v>
+        <v>51.412599999999998</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>5</v>
@@ -3145,13 +3148,13 @@
     </row>
     <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" s="1">
         <v>81.672700000000006</v>
       </c>
       <c r="C70" s="1">
-        <v>51.412599999999998</v>
+        <v>58.1447</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>5</v>
@@ -3165,13 +3168,13 @@
     </row>
     <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" s="1">
-        <v>76.52</v>
+        <v>81.672700000000006</v>
       </c>
       <c r="C71" s="1">
-        <v>58.1447</v>
+        <v>51.412599999999998</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>5</v>
@@ -3185,13 +3188,13 @@
     </row>
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72" s="1">
         <v>76.52</v>
       </c>
       <c r="C72" s="1">
-        <v>51.412599999999998</v>
+        <v>58.1447</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>5</v>
@@ -3205,13 +3208,13 @@
     </row>
     <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73" s="1">
-        <v>4.4534000000000002</v>
+        <v>76.52</v>
       </c>
       <c r="C73" s="1">
-        <v>15.867900000000001</v>
+        <v>51.412599999999998</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>5</v>
@@ -3220,44 +3223,44 @@
         <v>90</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B74" s="1">
-        <v>20.478999999999999</v>
+        <v>4.4534000000000002</v>
       </c>
       <c r="C74" s="1">
-        <v>72.844700000000003</v>
+        <v>15.867900000000001</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E74" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B75" s="1">
-        <v>47.3718</v>
+        <v>20.478999999999999</v>
       </c>
       <c r="C75" s="1">
-        <v>68.813699999999997</v>
+        <v>72.844700000000003</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E75" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>98</v>
@@ -3265,10 +3268,10 @@
     </row>
     <row r="76" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76" s="1">
-        <v>43.370800000000003</v>
+        <v>47.3718</v>
       </c>
       <c r="C76" s="1">
         <v>68.813699999999997</v>
@@ -3285,10 +3288,10 @@
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77" s="1">
-        <v>39.369700000000002</v>
+        <v>43.370800000000003</v>
       </c>
       <c r="C77" s="1">
         <v>68.813699999999997</v>
@@ -3305,19 +3308,19 @@
     </row>
     <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78" s="1">
-        <v>28.3474</v>
+        <v>39.369700000000002</v>
       </c>
       <c r="C78" s="1">
-        <v>74.871799999999993</v>
+        <v>68.813699999999997</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>98</v>
@@ -3325,19 +3328,19 @@
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" s="1">
-        <v>94.364800000000002</v>
+        <v>28.3474</v>
       </c>
       <c r="C79" s="1">
-        <v>17.620200000000001</v>
+        <v>74.871799999999993</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E79" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>98</v>
@@ -3345,19 +3348,19 @@
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="1">
-        <v>45.495199999999997</v>
+        <v>94.364800000000002</v>
       </c>
       <c r="C80" s="1">
-        <v>20.351199999999999</v>
+        <v>17.620200000000001</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E80" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>98</v>
@@ -3365,19 +3368,19 @@
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" s="1">
-        <v>40.712400000000002</v>
+        <v>45.495199999999997</v>
       </c>
       <c r="C81" s="1">
-        <v>4.3226000000000004</v>
+        <v>20.351199999999999</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>98</v>
@@ -3385,19 +3388,19 @@
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" s="1">
-        <v>88.525099999999995</v>
+        <v>40.712400000000002</v>
       </c>
       <c r="C82" s="1">
-        <v>63.308199999999999</v>
+        <v>4.3226000000000004</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E82" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>98</v>
@@ -3405,13 +3408,13 @@
     </row>
     <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B83" s="1">
-        <v>88.503500000000003</v>
+        <v>88.525099999999995</v>
       </c>
       <c r="C83" s="1">
-        <v>64.658500000000004</v>
+        <v>63.308199999999999</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>5</v>
@@ -3425,13 +3428,13 @@
     </row>
     <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84" s="1">
-        <v>101.4402</v>
+        <v>88.503500000000003</v>
       </c>
       <c r="C84" s="1">
-        <v>69.204099999999997</v>
+        <v>64.658500000000004</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>5</v>
@@ -3445,19 +3448,19 @@
     </row>
     <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B85" s="1">
-        <v>46.371499999999997</v>
+        <v>101.4402</v>
       </c>
       <c r="C85" s="1">
-        <v>68.813699999999997</v>
+        <v>69.204099999999997</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E85" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>98</v>
@@ -3465,10 +3468,10 @@
     </row>
     <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86" s="1">
-        <v>42.3705</v>
+        <v>46.371499999999997</v>
       </c>
       <c r="C86" s="1">
         <v>68.813699999999997</v>
@@ -3485,10 +3488,10 @@
     </row>
     <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B87" s="1">
-        <v>38.369500000000002</v>
+        <v>42.3705</v>
       </c>
       <c r="C87" s="1">
         <v>68.813699999999997</v>
@@ -3505,10 +3508,10 @@
     </row>
     <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88" s="1">
-        <v>53.3733</v>
+        <v>38.369500000000002</v>
       </c>
       <c r="C88" s="1">
         <v>68.813699999999997</v>
@@ -3517,7 +3520,7 @@
         <v>5</v>
       </c>
       <c r="E88" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>98</v>
@@ -3525,10 +3528,10 @@
     </row>
     <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B89" s="1">
-        <v>50.372500000000002</v>
+        <v>53.3733</v>
       </c>
       <c r="C89" s="1">
         <v>68.813699999999997</v>
@@ -3545,19 +3548,19 @@
     </row>
     <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" s="1">
-        <v>94.727000000000004</v>
+        <v>50.372500000000002</v>
       </c>
       <c r="C90" s="1">
-        <v>67.202600000000004</v>
+        <v>68.813699999999997</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E90" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>98</v>
@@ -3565,13 +3568,13 @@
     </row>
     <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91" s="1">
-        <v>49.372300000000003</v>
+        <v>94.727000000000004</v>
       </c>
       <c r="C91" s="1">
-        <v>68.813699999999997</v>
+        <v>67.202600000000004</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>5</v>
@@ -3585,10 +3588,10 @@
     </row>
     <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92" s="1">
-        <v>45.371299999999998</v>
+        <v>49.372300000000003</v>
       </c>
       <c r="C92" s="1">
         <v>68.813699999999997</v>
@@ -3605,10 +3608,10 @@
     </row>
     <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B93" s="1">
-        <v>41.370199999999997</v>
+        <v>45.371299999999998</v>
       </c>
       <c r="C93" s="1">
         <v>68.813699999999997</v>
@@ -3625,19 +3628,19 @@
     </row>
     <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94" s="1">
-        <v>7.8155999999999999</v>
+        <v>41.370199999999997</v>
       </c>
       <c r="C94" s="1">
-        <v>15.3406</v>
+        <v>68.813699999999997</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E94" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>98</v>
@@ -3645,19 +3648,19 @@
     </row>
     <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B95" s="1">
-        <v>27.526700000000002</v>
+        <v>7.8155999999999999</v>
       </c>
       <c r="C95" s="1">
-        <v>21.861000000000001</v>
+        <v>15.3406</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E95" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>98</v>
@@ -3665,10 +3668,10 @@
     </row>
     <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96" s="1">
-        <v>21.525200000000002</v>
+        <v>27.526700000000002</v>
       </c>
       <c r="C96" s="1">
         <v>21.861000000000001</v>
@@ -3685,13 +3688,13 @@
     </row>
     <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97" s="1">
-        <v>24.116299999999999</v>
+        <v>21.525200000000002</v>
       </c>
       <c r="C97" s="1">
-        <v>31.3367</v>
+        <v>21.861000000000001</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>5</v>
@@ -3705,19 +3708,19 @@
     </row>
     <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98" s="1">
-        <v>61.635100000000001</v>
+        <v>24.116299999999999</v>
       </c>
       <c r="C98" s="1">
-        <v>9.1432000000000002</v>
+        <v>31.3367</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E98" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>98</v>
@@ -3725,10 +3728,10 @@
     </row>
     <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99" s="1">
-        <v>65.454999999999998</v>
+        <v>61.635100000000001</v>
       </c>
       <c r="C99" s="1">
         <v>9.1432000000000002</v>
@@ -3745,19 +3748,19 @@
     </row>
     <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B100" s="1">
-        <v>9.2560000000000002</v>
+        <v>65.454999999999998</v>
       </c>
       <c r="C100" s="1">
-        <v>66.420699999999997</v>
+        <v>9.1432000000000002</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E100" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>98</v>
@@ -3765,13 +3768,13 @@
     </row>
     <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B101" s="1">
         <v>9.2560000000000002</v>
       </c>
       <c r="C101" s="1">
-        <v>63.396900000000002</v>
+        <v>66.420699999999997</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>5</v>
@@ -3785,19 +3788,19 @@
     </row>
     <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102" s="1">
-        <v>108.4496</v>
+        <v>9.2560000000000002</v>
       </c>
       <c r="C102" s="1">
-        <v>56.849499999999999</v>
+        <v>63.396900000000002</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E102" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>98</v>
@@ -3805,19 +3808,19 @@
     </row>
     <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103" s="1">
-        <v>7.1383999999999999</v>
+        <v>108.4496</v>
       </c>
       <c r="C103" s="1">
-        <v>73.301400000000001</v>
+        <v>56.849499999999999</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>98</v>
@@ -3825,13 +3828,13 @@
     </row>
     <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104" s="1">
         <v>7.1383999999999999</v>
       </c>
       <c r="C104" s="1">
-        <v>74.301599999999993</v>
+        <v>73.301400000000001</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>5</v>
@@ -3845,13 +3848,13 @@
     </row>
     <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" s="1">
-        <v>82.442599999999999</v>
+        <v>7.1383999999999999</v>
       </c>
       <c r="C105" s="1">
-        <v>39.929099999999998</v>
+        <v>74.301599999999993</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
@@ -3865,19 +3868,19 @@
     </row>
     <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B106" s="1">
-        <v>18.284700000000001</v>
+        <v>82.442599999999999</v>
       </c>
       <c r="C106" s="1">
-        <v>45.150500000000001</v>
+        <v>39.929099999999998</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E106" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>98</v>
@@ -3885,19 +3888,19 @@
     </row>
     <row r="107" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B107" s="1">
-        <v>107.5433</v>
+        <v>18.284700000000001</v>
       </c>
       <c r="C107" s="1">
-        <v>75.438299999999998</v>
+        <v>45.150500000000001</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E107" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>98</v>
@@ -3905,19 +3908,19 @@
     </row>
     <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B108" s="1">
-        <v>17.284400000000002</v>
+        <v>107.5433</v>
       </c>
       <c r="C108" s="1">
-        <v>45.150500000000001</v>
+        <v>75.438299999999998</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E108" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>98</v>
@@ -3925,19 +3928,19 @@
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109" s="1">
-        <v>95.767700000000005</v>
+        <v>17.284400000000002</v>
       </c>
       <c r="C109" s="1">
-        <v>23.8628</v>
+        <v>45.150500000000001</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E109" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>98</v>
@@ -3945,13 +3948,13 @@
     </row>
     <row r="110" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B110" s="1">
-        <v>18.0411</v>
+        <v>95.767700000000005</v>
       </c>
       <c r="C110" s="1">
-        <v>74.857600000000005</v>
+        <v>23.8628</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>5</v>
@@ -3960,18 +3963,18 @@
         <v>0</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B111" s="1">
-        <v>83.175899999999999</v>
+        <v>18.0411</v>
       </c>
       <c r="C111" s="1">
-        <v>6.4779999999999998</v>
+        <v>74.857600000000005</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>5</v>
@@ -3980,44 +3983,44 @@
         <v>0</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B112" s="1">
-        <v>44.119799999999998</v>
+        <v>83.175899999999999</v>
       </c>
       <c r="C112" s="1">
-        <v>3.2008999999999999</v>
+        <v>6.4779999999999998</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E112" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B113" s="1">
-        <v>23.233899999999998</v>
+        <v>44.119799999999998</v>
       </c>
       <c r="C113" s="1">
-        <v>63.158900000000003</v>
+        <v>3.2008999999999999</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E113" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>139</v>
@@ -4025,13 +4028,13 @@
     </row>
     <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B114" s="1">
-        <v>19.087599999999998</v>
+        <v>23.233899999999998</v>
       </c>
       <c r="C114" s="1">
-        <v>63.193399999999997</v>
+        <v>63.158900000000003</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>5</v>
@@ -4045,19 +4048,19 @@
     </row>
     <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B115" s="1">
-        <v>79.155000000000001</v>
+        <v>19.087599999999998</v>
       </c>
       <c r="C115" s="1">
-        <v>64.569299999999998</v>
+        <v>63.193399999999997</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E115" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>139</v>
@@ -4065,13 +4068,13 @@
     </row>
     <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B116" s="1">
-        <v>79.091300000000004</v>
+        <v>79.155000000000001</v>
       </c>
       <c r="C116" s="1">
-        <v>68.473299999999995</v>
+        <v>64.569299999999998</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>5</v>
@@ -4085,133 +4088,133 @@
     </row>
     <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B117" s="1">
-        <v>103.5294</v>
+        <v>79.091300000000004</v>
       </c>
       <c r="C117" s="1">
-        <v>66.307699999999997</v>
+        <v>68.473299999999995</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E117" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B118" s="1">
-        <v>18.813300000000002</v>
+        <v>103.5294</v>
       </c>
       <c r="C118" s="1">
-        <v>70.28</v>
+        <v>66.307699999999997</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E118" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B119" s="1">
-        <v>27.3827</v>
+        <v>18.813300000000002</v>
       </c>
       <c r="C119" s="1">
-        <v>69.977500000000006</v>
+        <v>70.28</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E119" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B120" s="1">
-        <v>90.776799999999994</v>
+        <v>27.3827</v>
       </c>
       <c r="C120" s="1">
-        <v>6.4779999999999998</v>
+        <v>69.977500000000006</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E120" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B121" s="1">
-        <v>98.027500000000003</v>
+        <v>90.776799999999994</v>
       </c>
       <c r="C121" s="1">
-        <v>3.3523000000000001</v>
+        <v>6.4779999999999998</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E121" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B122" s="1">
-        <v>75.791300000000007</v>
+        <v>98.027500000000003</v>
       </c>
       <c r="C122" s="1">
-        <v>22.221699999999998</v>
+        <v>3.3523000000000001</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E122" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B123" s="1">
-        <v>84.500699999999995</v>
+        <v>75.791300000000007</v>
       </c>
       <c r="C123" s="1">
-        <v>22.203700000000001</v>
+        <v>22.221699999999998</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>5</v>
@@ -4220,38 +4223,38 @@
         <v>0</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B124" s="1">
-        <v>38.593499999999999</v>
+        <v>84.500699999999995</v>
       </c>
       <c r="C124" s="1">
-        <v>26.2242</v>
+        <v>22.203700000000001</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E124" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B125" s="1">
-        <v>46.269399999999997</v>
+        <v>38.593499999999999</v>
       </c>
       <c r="C125" s="1">
-        <v>17.797499999999999</v>
+        <v>26.2242</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>5</v>
@@ -4260,38 +4263,38 @@
         <v>180</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B126" s="1">
-        <v>31.936900000000001</v>
+        <v>46.269399999999997</v>
       </c>
       <c r="C126" s="1">
-        <v>3.1999</v>
+        <v>17.797499999999999</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E126" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B127" s="1">
-        <v>29.1755</v>
+        <v>31.936900000000001</v>
       </c>
       <c r="C127" s="1">
-        <v>12.5136</v>
+        <v>3.1999</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>5</v>
@@ -4305,33 +4308,33 @@
     </row>
     <row r="128" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B128" s="1">
-        <v>92.021900000000002</v>
+        <v>29.1755</v>
       </c>
       <c r="C128" s="1">
-        <v>20.477</v>
+        <v>12.5136</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E128" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B129" s="1">
-        <v>92.042699999999996</v>
+        <v>92.021900000000002</v>
       </c>
       <c r="C129" s="1">
-        <v>26.327400000000001</v>
+        <v>20.477</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>5</v>
@@ -4345,13 +4348,13 @@
     </row>
     <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B130" s="1">
-        <v>92.012500000000003</v>
+        <v>92.042699999999996</v>
       </c>
       <c r="C130" s="1">
-        <v>32.161700000000003</v>
+        <v>26.327400000000001</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>5</v>
@@ -4365,13 +4368,13 @@
     </row>
     <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B131" s="1">
-        <v>32.497799999999998</v>
+        <v>92.012500000000003</v>
       </c>
       <c r="C131" s="1">
-        <v>17.0579</v>
+        <v>32.161700000000003</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>5</v>
@@ -4385,10 +4388,10 @@
     </row>
     <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B132" s="1">
-        <v>31.347200000000001</v>
+        <v>32.497799999999998</v>
       </c>
       <c r="C132" s="1">
         <v>17.0579</v>
@@ -4405,10 +4408,10 @@
     </row>
     <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B133" s="1">
-        <v>30.1965</v>
+        <v>31.347200000000001</v>
       </c>
       <c r="C133" s="1">
         <v>17.0579</v>
@@ -4425,10 +4428,10 @@
     </row>
     <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B134" s="1">
-        <v>29.0459</v>
+        <v>30.1965</v>
       </c>
       <c r="C134" s="1">
         <v>17.0579</v>
@@ -4445,33 +4448,33 @@
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B135" s="1">
-        <v>100.72750000000001</v>
+        <v>29.0459</v>
       </c>
       <c r="C135" s="1">
-        <v>18.655799999999999</v>
+        <v>17.0579</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E135" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B136" s="1">
         <v>100.72750000000001</v>
       </c>
       <c r="C136" s="1">
-        <v>24.497800000000002</v>
+        <v>18.655799999999999</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>5</v>
@@ -4485,13 +4488,13 @@
     </row>
     <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B137" s="1">
         <v>100.72750000000001</v>
       </c>
       <c r="C137" s="1">
-        <v>30.3398</v>
+        <v>24.497800000000002</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>5</v>
@@ -4505,30 +4508,30 @@
     </row>
     <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B138" s="1">
-        <v>46.756799999999998</v>
+        <v>100.72750000000001</v>
       </c>
       <c r="C138" s="1">
-        <v>7.3933999999999997</v>
+        <v>30.3398</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E138" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B139" s="1">
-        <v>43.524900000000002</v>
+        <v>46.756799999999998</v>
       </c>
       <c r="C139" s="1">
         <v>7.3933999999999997</v>
@@ -4545,13 +4548,13 @@
     </row>
     <row r="140" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B140" s="1">
-        <v>46.756799999999998</v>
+        <v>43.524900000000002</v>
       </c>
       <c r="C140" s="1">
-        <v>9.9634</v>
+        <v>7.3933999999999997</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>5</v>
@@ -4565,19 +4568,19 @@
     </row>
     <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B141" s="1">
-        <v>49.747199999999999</v>
+        <v>46.756799999999998</v>
       </c>
       <c r="C141" s="1">
-        <v>65.830399999999997</v>
+        <v>9.9634</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E141" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>172</v>
@@ -4585,10 +4588,10 @@
     </row>
     <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B142" s="1">
-        <v>52.099699999999999</v>
+        <v>49.747199999999999</v>
       </c>
       <c r="C142" s="1">
         <v>65.830399999999997</v>
@@ -4605,10 +4608,10 @@
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B143" s="1">
-        <v>54.452300000000001</v>
+        <v>52.099699999999999</v>
       </c>
       <c r="C143" s="1">
         <v>65.830399999999997</v>
@@ -4625,10 +4628,10 @@
     </row>
     <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B144" s="1">
-        <v>56.8048</v>
+        <v>54.452300000000001</v>
       </c>
       <c r="C144" s="1">
         <v>65.830399999999997</v>
@@ -4645,10 +4648,10 @@
     </row>
     <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B145" s="1">
-        <v>40.337000000000003</v>
+        <v>56.8048</v>
       </c>
       <c r="C145" s="1">
         <v>65.830399999999997</v>
@@ -4665,10 +4668,10 @@
     </row>
     <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B146" s="1">
-        <v>42.689500000000002</v>
+        <v>40.337000000000003</v>
       </c>
       <c r="C146" s="1">
         <v>65.830399999999997</v>
@@ -4685,10 +4688,10 @@
     </row>
     <row r="147" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B147" s="1">
-        <v>45.042099999999998</v>
+        <v>42.689500000000002</v>
       </c>
       <c r="C147" s="1">
         <v>65.830399999999997</v>
@@ -4705,10 +4708,10 @@
     </row>
     <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B148" s="1">
-        <v>47.394599999999997</v>
+        <v>45.042099999999998</v>
       </c>
       <c r="C148" s="1">
         <v>65.830399999999997</v>
@@ -4725,10 +4728,10 @@
     </row>
     <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B149" s="1">
-        <v>30.9268</v>
+        <v>47.394599999999997</v>
       </c>
       <c r="C149" s="1">
         <v>65.830399999999997</v>
@@ -4745,10 +4748,10 @@
     </row>
     <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B150" s="1">
-        <v>33.279299999999999</v>
+        <v>30.9268</v>
       </c>
       <c r="C150" s="1">
         <v>65.830399999999997</v>
@@ -4765,10 +4768,10 @@
     </row>
     <row r="151" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B151" s="1">
-        <v>35.631900000000002</v>
+        <v>33.279299999999999</v>
       </c>
       <c r="C151" s="1">
         <v>65.830399999999997</v>
@@ -4785,10 +4788,10 @@
     </row>
     <row r="152" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B152" s="1">
-        <v>37.984400000000001</v>
+        <v>35.631900000000002</v>
       </c>
       <c r="C152" s="1">
         <v>65.830399999999997</v>
@@ -4805,10 +4808,10 @@
     </row>
     <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B153" s="1">
-        <v>61.509900000000002</v>
+        <v>37.984400000000001</v>
       </c>
       <c r="C153" s="1">
         <v>65.830399999999997</v>
@@ -4825,10 +4828,10 @@
     </row>
     <row r="154" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B154" s="1">
-        <v>59.157400000000003</v>
+        <v>61.509900000000002</v>
       </c>
       <c r="C154" s="1">
         <v>65.830399999999997</v>
@@ -4845,19 +4848,19 @@
     </row>
     <row r="155" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B155" s="1">
-        <v>46.756799999999998</v>
+        <v>59.157400000000003</v>
       </c>
       <c r="C155" s="1">
-        <v>12.5334</v>
+        <v>65.830399999999997</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E155" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>172</v>
@@ -4865,10 +4868,10 @@
     </row>
     <row r="156" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B156" s="1">
-        <v>43.524900000000002</v>
+        <v>46.756799999999998</v>
       </c>
       <c r="C156" s="1">
         <v>12.5334</v>
@@ -4885,13 +4888,13 @@
     </row>
     <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B157" s="1">
         <v>43.524900000000002</v>
       </c>
       <c r="C157" s="1">
-        <v>9.9634</v>
+        <v>12.5334</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>5</v>
@@ -4905,59 +4908,59 @@
     </row>
     <row r="158" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B158" s="1">
-        <v>36.464199999999998</v>
+        <v>43.524900000000002</v>
       </c>
       <c r="C158" s="1">
-        <v>10.7605</v>
+        <v>9.9634</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E158" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B159" s="1">
-        <v>36.122900000000001</v>
+        <v>36.464199999999998</v>
       </c>
       <c r="C159" s="1">
-        <v>20.8691</v>
+        <v>10.7605</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E159" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B160" s="1">
-        <v>22.488900000000001</v>
+        <v>36.122900000000001</v>
       </c>
       <c r="C160" s="1">
-        <v>56.754300000000001</v>
+        <v>20.8691</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E160" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>195</v>
@@ -4965,13 +4968,13 @@
     </row>
     <row r="161" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B161" s="1">
-        <v>103.8997</v>
+        <v>22.488900000000001</v>
       </c>
       <c r="C161" s="1">
-        <v>56.753500000000003</v>
+        <v>56.754300000000001</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>5</v>
@@ -4980,44 +4983,44 @@
         <v>270</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B162" s="1">
-        <v>87.5304</v>
+        <v>103.8997</v>
       </c>
       <c r="C162" s="1">
-        <v>40.904200000000003</v>
+        <v>56.753500000000003</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E162" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B163" s="1">
-        <v>102.4555</v>
+        <v>87.5304</v>
       </c>
       <c r="C163" s="1">
-        <v>74.463099999999997</v>
+        <v>40.904200000000003</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E163" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>200</v>
@@ -5025,13 +5028,13 @@
     </row>
     <row r="164" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B164" s="1">
-        <v>22.340800000000002</v>
+        <v>102.4555</v>
       </c>
       <c r="C164" s="1">
-        <v>49.8386</v>
+        <v>74.463099999999997</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>5</v>
@@ -5040,38 +5043,38 @@
         <v>180</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B165" s="1">
-        <v>89.289599999999993</v>
+        <v>22.340800000000002</v>
       </c>
       <c r="C165" s="1">
-        <v>75.280500000000004</v>
+        <v>49.8386</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E165" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B166" s="1">
-        <v>31.7652</v>
+        <v>89.289599999999993</v>
       </c>
       <c r="C166" s="1">
-        <v>32.460700000000003</v>
+        <v>75.280500000000004</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>5</v>
@@ -5080,58 +5083,58 @@
         <v>90</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B167" s="1">
-        <v>69.395799999999994</v>
+        <v>31.7652</v>
       </c>
       <c r="C167" s="1">
-        <v>70.9358</v>
+        <v>32.460700000000003</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E167" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B168" s="1">
-        <v>31.7652</v>
+        <v>69.395799999999994</v>
       </c>
       <c r="C168" s="1">
-        <v>37.954999999999998</v>
+        <v>70.9358</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E168" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B169" s="1">
-        <v>23.847300000000001</v>
+        <v>31.7652</v>
       </c>
       <c r="C169" s="1">
-        <v>26.5989</v>
+        <v>37.954999999999998</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>5</v>
@@ -5140,44 +5143,44 @@
         <v>90</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B170" s="1">
-        <v>35.965899999999998</v>
+        <v>23.847300000000001</v>
       </c>
       <c r="C170" s="1">
-        <v>2.5291000000000001</v>
+        <v>26.5989</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E170" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B171" s="1">
-        <v>18.4511</v>
+        <v>35.965899999999998</v>
       </c>
       <c r="C171" s="1">
-        <v>42.216799999999999</v>
+        <v>2.5291000000000001</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E171" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>213</v>
@@ -5185,19 +5188,19 @@
     </row>
     <row r="172" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B172" s="1">
-        <v>98.474299999999999</v>
+        <v>18.4511</v>
       </c>
       <c r="C172" s="1">
-        <v>82.638400000000004</v>
+        <v>42.216799999999999</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E172" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>213</v>
@@ -5205,19 +5208,19 @@
     </row>
     <row r="173" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B173" s="1">
-        <v>95.216999999999999</v>
+        <v>98.474299999999999</v>
       </c>
       <c r="C173" s="1">
-        <v>63.602600000000002</v>
+        <v>82.638400000000004</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E173" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>213</v>
@@ -5225,33 +5228,33 @@
     </row>
     <row r="174" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B174" s="1">
-        <v>38.0124</v>
+        <v>95.216999999999999</v>
       </c>
       <c r="C174" s="1">
-        <v>37.561300000000003</v>
+        <v>63.602600000000002</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E174" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B175" s="1">
-        <v>93.176900000000003</v>
+        <v>38.0124</v>
       </c>
       <c r="C175" s="1">
-        <v>25.5427</v>
+        <v>37.561300000000003</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>5</v>
@@ -5260,18 +5263,18 @@
         <v>90</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B176" s="1">
-        <v>100.9868</v>
+        <v>93.176900000000003</v>
       </c>
       <c r="C176" s="1">
-        <v>81.836799999999997</v>
+        <v>25.5427</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>5</v>
@@ -5285,13 +5288,13 @@
     </row>
     <row r="177" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B177" s="1">
-        <v>84.825299999999999</v>
+        <v>100.9868</v>
       </c>
       <c r="C177" s="1">
-        <v>51.412599999999998</v>
+        <v>81.836799999999997</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>5</v>
@@ -5305,13 +5308,13 @@
     </row>
     <row r="178" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B178" s="1">
         <v>84.825299999999999</v>
       </c>
       <c r="C178" s="1">
-        <v>58.1447</v>
+        <v>51.412599999999998</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>5</v>
@@ -5325,13 +5328,13 @@
     </row>
     <row r="179" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B179" s="1">
-        <v>73.367400000000004</v>
+        <v>84.825299999999999</v>
       </c>
       <c r="C179" s="1">
-        <v>51.412599999999998</v>
+        <v>58.1447</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>5</v>
@@ -5345,13 +5348,13 @@
     </row>
     <row r="180" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B180" s="1">
         <v>73.367400000000004</v>
       </c>
       <c r="C180" s="1">
-        <v>58.1447</v>
+        <v>51.412599999999998</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>5</v>
@@ -5365,19 +5368,19 @@
     </row>
     <row r="181" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B181" s="1">
-        <v>26.784600000000001</v>
+        <v>73.367400000000004</v>
       </c>
       <c r="C181" s="1">
-        <v>30.8079</v>
+        <v>58.1447</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E181" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>9</v>
@@ -5385,19 +5388,19 @@
     </row>
     <row r="182" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B182" s="1">
-        <v>65.761899999999997</v>
+        <v>26.784600000000001</v>
       </c>
       <c r="C182" s="1">
-        <v>70.606399999999994</v>
+        <v>30.8079</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E182" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>9</v>
@@ -5405,13 +5408,13 @@
     </row>
     <row r="183" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B183" s="1">
-        <v>73.283799999999999</v>
+        <v>65.761899999999997</v>
       </c>
       <c r="C183" s="1">
-        <v>71.516000000000005</v>
+        <v>70.606399999999994</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>5</v>
@@ -5425,19 +5428,19 @@
     </row>
     <row r="184" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B184" s="1">
-        <v>26.805399999999999</v>
+        <v>73.283799999999999</v>
       </c>
       <c r="C184" s="1">
-        <v>36.049999999999997</v>
+        <v>71.516000000000005</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E184" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>9</v>
@@ -5445,19 +5448,19 @@
     </row>
     <row r="185" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B185" s="1">
-        <v>16.9268</v>
+        <v>26.805399999999999</v>
       </c>
       <c r="C185" s="1">
-        <v>55.558399999999999</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E185" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>9</v>
@@ -5465,19 +5468,19 @@
     </row>
     <row r="186" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B186" s="1">
-        <v>97.308700000000002</v>
+        <v>16.9268</v>
       </c>
       <c r="C186" s="1">
-        <v>51.412599999999998</v>
+        <v>55.558399999999999</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E186" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>9</v>
@@ -5485,10 +5488,10 @@
     </row>
     <row r="187" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B187" s="1">
-        <v>85.850700000000003</v>
+        <v>97.308700000000002</v>
       </c>
       <c r="C187" s="1">
         <v>51.412599999999998</v>
@@ -5505,13 +5508,13 @@
     </row>
     <row r="188" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B188" s="1">
-        <v>97.308700000000002</v>
+        <v>85.850700000000003</v>
       </c>
       <c r="C188" s="1">
-        <v>58.1447</v>
+        <v>51.412599999999998</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>5</v>
@@ -5525,10 +5528,10 @@
     </row>
     <row r="189" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B189" s="1">
-        <v>85.850700000000003</v>
+        <v>97.308700000000002</v>
       </c>
       <c r="C189" s="1">
         <v>58.1447</v>
@@ -5545,19 +5548,19 @@
     </row>
     <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B190" s="1">
-        <v>19.109400000000001</v>
+        <v>85.850700000000003</v>
       </c>
       <c r="C190" s="1">
-        <v>23.648199999999999</v>
+        <v>58.1447</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E190" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>9</v>
@@ -5565,19 +5568,19 @@
     </row>
     <row r="191" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B191" s="1">
-        <v>28.527000000000001</v>
+        <v>19.109400000000001</v>
       </c>
       <c r="C191" s="1">
-        <v>21.861000000000001</v>
+        <v>23.648199999999999</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E191" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>9</v>
@@ -5585,19 +5588,19 @@
     </row>
     <row r="192" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B192" s="1">
-        <v>28.5852</v>
+        <v>28.527000000000001</v>
       </c>
       <c r="C192" s="1">
-        <v>25.05</v>
+        <v>21.861000000000001</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E192" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>9</v>
@@ -5605,19 +5608,19 @@
     </row>
     <row r="193" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B193" s="1">
-        <v>22.1158</v>
+        <v>28.5852</v>
       </c>
       <c r="C193" s="1">
-        <v>31.3367</v>
+        <v>25.05</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E193" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>9</v>
@@ -5625,19 +5628,19 @@
     </row>
     <row r="194" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B194" s="1">
-        <v>94.177099999999996</v>
+        <v>22.1158</v>
       </c>
       <c r="C194" s="1">
-        <v>25.5427</v>
+        <v>31.3367</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E194" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>9</v>
@@ -5645,13 +5648,13 @@
     </row>
     <row r="195" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B195" s="1">
-        <v>93.176900000000003</v>
+        <v>94.177099999999996</v>
       </c>
       <c r="C195" s="1">
-        <v>31.384699999999999</v>
+        <v>25.5427</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>5</v>
@@ -5665,19 +5668,19 @@
     </row>
     <row r="196" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B196" s="1">
-        <v>96.216700000000003</v>
+        <v>93.176900000000003</v>
       </c>
       <c r="C196" s="1">
-        <v>13.8567</v>
+        <v>31.384699999999999</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E196" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>9</v>
@@ -5685,19 +5688,19 @@
     </row>
     <row r="197" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B197" s="1">
-        <v>30.026399999999999</v>
+        <v>96.216700000000003</v>
       </c>
       <c r="C197" s="1">
-        <v>8.1091999999999995</v>
+        <v>13.8567</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E197" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>9</v>
@@ -5705,19 +5708,19 @@
     </row>
     <row r="198" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B198" s="1">
         <v>30.026399999999999</v>
       </c>
       <c r="C198" s="1">
-        <v>7.109</v>
+        <v>8.1091999999999995</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E198" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>9</v>
@@ -5725,19 +5728,19 @@
     </row>
     <row r="199" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B199" s="1">
-        <v>33.714199999999998</v>
+        <v>30.026399999999999</v>
       </c>
       <c r="C199" s="1">
-        <v>17.1983</v>
+        <v>7.109</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E199" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>9</v>
@@ -5745,19 +5748,19 @@
     </row>
     <row r="200" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B200" s="1">
-        <v>39.7121</v>
+        <v>33.714199999999998</v>
       </c>
       <c r="C200" s="1">
-        <v>4.3226000000000004</v>
+        <v>17.1983</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E200" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>9</v>
@@ -5765,10 +5768,10 @@
     </row>
     <row r="201" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B201" s="1">
-        <v>38.7119</v>
+        <v>39.7121</v>
       </c>
       <c r="C201" s="1">
         <v>4.3226000000000004</v>
@@ -5777,7 +5780,7 @@
         <v>5</v>
       </c>
       <c r="E201" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>9</v>
@@ -5785,19 +5788,19 @@
     </row>
     <row r="202" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B202" s="1">
-        <v>50.360599999999998</v>
+        <v>38.7119</v>
       </c>
       <c r="C202" s="1">
-        <v>12.4498</v>
+        <v>4.3226000000000004</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E202" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>9</v>
@@ -5805,19 +5808,19 @@
     </row>
     <row r="203" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B203" s="1">
-        <v>34.714399999999998</v>
+        <v>50.360599999999998</v>
       </c>
       <c r="C203" s="1">
-        <v>17.1983</v>
+        <v>12.4498</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E203" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>9</v>
@@ -5825,19 +5828,19 @@
     </row>
     <row r="204" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B204" s="1">
-        <v>42.902099999999997</v>
+        <v>34.714399999999998</v>
       </c>
       <c r="C204" s="1">
-        <v>15.305</v>
+        <v>17.1983</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E204" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>9</v>
@@ -5845,19 +5848,19 @@
     </row>
     <row r="205" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B205" s="1">
-        <v>99.349800000000002</v>
+        <v>42.902099999999997</v>
       </c>
       <c r="C205" s="1">
-        <v>56.7286</v>
+        <v>15.305</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E205" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>9</v>
@@ -5865,19 +5868,19 @@
     </row>
     <row r="206" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B206" s="1">
-        <v>93.03</v>
+        <v>99.349800000000002</v>
       </c>
       <c r="C206" s="1">
-        <v>37.685699999999997</v>
+        <v>56.7286</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E206" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>9</v>
@@ -5885,19 +5888,19 @@
     </row>
     <row r="207" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B207" s="1">
-        <v>82.442599999999999</v>
+        <v>93.03</v>
       </c>
       <c r="C207" s="1">
-        <v>43.179200000000002</v>
+        <v>37.685699999999997</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E207" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>9</v>
@@ -5905,10 +5908,10 @@
     </row>
     <row r="208" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B208" s="1">
-        <v>92.618300000000005</v>
+        <v>82.442599999999999</v>
       </c>
       <c r="C208" s="1">
         <v>43.179200000000002</v>
@@ -5925,19 +5928,19 @@
     </row>
     <row r="209" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B209" s="1">
-        <v>12.7422</v>
+        <v>92.618300000000005</v>
       </c>
       <c r="C209" s="1">
-        <v>60.757800000000003</v>
+        <v>43.179200000000002</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E209" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>9</v>
@@ -5945,19 +5948,19 @@
     </row>
     <row r="210" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B210" s="1">
-        <v>19.285</v>
+        <v>12.7422</v>
       </c>
       <c r="C210" s="1">
-        <v>45.150500000000001</v>
+        <v>60.757800000000003</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E210" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>9</v>
@@ -5965,19 +5968,19 @@
     </row>
     <row r="211" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B211" s="1">
-        <v>10.2563</v>
+        <v>19.285</v>
       </c>
       <c r="C211" s="1">
-        <v>63.396900000000002</v>
+        <v>45.150500000000001</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E211" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>9</v>
@@ -5985,19 +5988,19 @@
     </row>
     <row r="212" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B212" s="1">
-        <v>20.656300000000002</v>
+        <v>10.2563</v>
       </c>
       <c r="C212" s="1">
-        <v>41.115699999999997</v>
+        <v>63.396900000000002</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E212" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>9</v>
@@ -6005,19 +6008,19 @@
     </row>
     <row r="213" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B213" s="1">
-        <v>21.285499999999999</v>
+        <v>20.656300000000002</v>
       </c>
       <c r="C213" s="1">
-        <v>45.150500000000001</v>
+        <v>41.115699999999997</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E213" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>9</v>
@@ -6025,10 +6028,10 @@
     </row>
     <row r="214" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B214" s="1">
-        <v>22.285699999999999</v>
+        <v>21.285499999999999</v>
       </c>
       <c r="C214" s="1">
         <v>45.150500000000001</v>
@@ -6045,13 +6048,13 @@
     </row>
     <row r="215" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B215" s="1">
-        <v>27.478200000000001</v>
+        <v>22.285699999999999</v>
       </c>
       <c r="C215" s="1">
-        <v>46.119500000000002</v>
+        <v>45.150500000000001</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>5</v>
@@ -6065,19 +6068,19 @@
     </row>
     <row r="216" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B216" s="1">
-        <v>17.652699999999999</v>
+        <v>27.478200000000001</v>
       </c>
       <c r="C216" s="1">
-        <v>49.837600000000002</v>
+        <v>46.119500000000002</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E216" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>9</v>
@@ -6085,13 +6088,13 @@
     </row>
     <row r="217" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B217" s="1">
-        <v>107.5433</v>
+        <v>17.652699999999999</v>
       </c>
       <c r="C217" s="1">
-        <v>72.188100000000006</v>
+        <v>49.837600000000002</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>5</v>
@@ -6105,13 +6108,13 @@
     </row>
     <row r="218" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B218" s="1">
-        <v>97.367599999999996</v>
+        <v>107.5433</v>
       </c>
       <c r="C218" s="1">
-        <v>77.36</v>
+        <v>72.188100000000006</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>5</v>
@@ -6125,19 +6128,19 @@
     </row>
     <row r="219" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B219" s="1">
-        <v>93.176900000000003</v>
+        <v>97.367599999999996</v>
       </c>
       <c r="C219" s="1">
-        <v>19.700700000000001</v>
+        <v>77.36</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E219" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>9</v>
@@ -6145,13 +6148,13 @@
     </row>
     <row r="220" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B220" s="1">
-        <v>94.177099999999996</v>
+        <v>93.176900000000003</v>
       </c>
       <c r="C220" s="1">
-        <v>31.384699999999999</v>
+        <v>19.700700000000001</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>5</v>
@@ -6165,13 +6168,13 @@
     </row>
     <row r="221" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B221" s="1">
         <v>94.177099999999996</v>
       </c>
       <c r="C221" s="1">
-        <v>19.700700000000001</v>
+        <v>31.384699999999999</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>5</v>
@@ -6185,19 +6188,19 @@
     </row>
     <row r="222" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B222" s="1">
-        <v>96.216700000000003</v>
+        <v>94.177099999999996</v>
       </c>
       <c r="C222" s="1">
-        <v>14.856999999999999</v>
+        <v>19.700700000000001</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E222" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>9</v>
@@ -6205,19 +6208,19 @@
     </row>
     <row r="223" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B223" s="1">
-        <v>56.4756</v>
+        <v>96.216700000000003</v>
       </c>
       <c r="C223" s="1">
-        <v>48.3979</v>
+        <v>14.856999999999999</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E223" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>9</v>
@@ -6225,10 +6228,10 @@
     </row>
     <row r="224" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B224" s="1">
-        <v>63.292499999999997</v>
+        <v>56.4756</v>
       </c>
       <c r="C224" s="1">
         <v>48.3979</v>
@@ -6245,19 +6248,19 @@
     </row>
     <row r="225" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B225" s="1">
-        <v>68.7179</v>
+        <v>62.892699999999998</v>
       </c>
       <c r="C225" s="1">
-        <v>39.957500000000003</v>
+        <v>48.3979</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E225" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>9</v>
@@ -6265,19 +6268,19 @@
     </row>
     <row r="226" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B226" s="1">
-        <v>64.930000000000007</v>
+        <v>68.7179</v>
       </c>
       <c r="C226" s="1">
-        <v>22.7241</v>
+        <v>40.357599999999998</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E226" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>9</v>
@@ -6285,10 +6288,10 @@
     </row>
     <row r="227" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B227" s="1">
-        <v>61.445099999999996</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="C227" s="1">
         <v>22.7241</v>
@@ -6305,19 +6308,19 @@
     </row>
     <row r="228" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B228" s="1">
-        <v>52.745399999999997</v>
+        <v>62.244700000000002</v>
       </c>
       <c r="C228" s="1">
-        <v>48.3979</v>
+        <v>22.7241</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E228" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>9</v>
@@ -6325,19 +6328,19 @@
     </row>
     <row r="229" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B229" s="1">
-        <v>43.042099999999998</v>
+        <v>53.545000000000002</v>
       </c>
       <c r="C229" s="1">
-        <v>33.939</v>
+        <v>48.3979</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E229" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>9</v>
@@ -6345,19 +6348,19 @@
     </row>
     <row r="230" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B230" s="1">
-        <v>49.369199999999999</v>
+        <v>43.090299999999999</v>
       </c>
       <c r="C230" s="1">
-        <v>22.7241</v>
+        <v>34.3352</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E230" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>9</v>
@@ -6365,19 +6368,19 @@
     </row>
     <row r="231" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B231" s="1">
-        <v>68.7179</v>
+        <v>50.168799999999997</v>
       </c>
       <c r="C231" s="1">
-        <v>28.753799999999998</v>
+        <v>22.7241</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E231" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>9</v>
@@ -6385,19 +6388,19 @@
     </row>
     <row r="232" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B232" s="1">
-        <v>53.822899999999997</v>
+        <v>68.7179</v>
       </c>
       <c r="C232" s="1">
-        <v>22.7241</v>
+        <v>29.1539</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E232" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>9</v>
@@ -6405,19 +6408,19 @@
     </row>
     <row r="233" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B233" s="1">
-        <v>68.7179</v>
+        <v>54.622399999999999</v>
       </c>
       <c r="C233" s="1">
-        <v>34.014699999999998</v>
+        <v>22.7241</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E233" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>9</v>
@@ -6425,19 +6428,19 @@
     </row>
     <row r="234" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B234" s="1">
-        <v>59.5244</v>
+        <v>68.7179</v>
       </c>
       <c r="C234" s="1">
-        <v>48.3979</v>
+        <v>35.414999999999999</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E234" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>9</v>
@@ -6445,19 +6448,19 @@
     </row>
     <row r="235" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B235" s="1">
-        <v>43.042099999999998</v>
+        <v>59.124600000000001</v>
       </c>
       <c r="C235" s="1">
-        <v>40.332900000000002</v>
+        <v>48.3979</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E235" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>9</v>
@@ -6465,19 +6468,19 @@
     </row>
     <row r="236" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B236" s="1">
-        <v>52.822600000000001</v>
+        <v>43.042099999999998</v>
       </c>
       <c r="C236" s="1">
-        <v>22.7241</v>
+        <v>40.732700000000001</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E236" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>9</v>
@@ -6485,19 +6488,19 @@
     </row>
     <row r="237" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B237" s="1">
-        <v>68.7179</v>
+        <v>53.622199999999999</v>
       </c>
       <c r="C237" s="1">
-        <v>35.014899999999997</v>
+        <v>22.7241</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E237" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>9</v>
@@ -6505,19 +6508,19 @@
     </row>
     <row r="238" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B238" s="1">
-        <v>56.378300000000003</v>
+        <v>68.7179</v>
       </c>
       <c r="C238" s="1">
-        <v>22.7241</v>
+        <v>34.414700000000003</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E238" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>9</v>
@@ -6525,19 +6528,19 @@
     </row>
     <row r="239" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B239" s="1">
-        <v>68.7179</v>
+        <v>57.177900000000001</v>
       </c>
       <c r="C239" s="1">
-        <v>38.211500000000001</v>
+        <v>22.7241</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E239" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>9</v>
@@ -6545,19 +6548,19 @@
     </row>
     <row r="240" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B240" s="1">
-        <v>43.042099999999998</v>
+        <v>68.7179</v>
       </c>
       <c r="C240" s="1">
-        <v>39.332700000000003</v>
+        <v>38.611600000000003</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E240" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>9</v>
@@ -6565,19 +6568,19 @@
     </row>
     <row r="241" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B241" s="1">
-        <v>48.369</v>
+        <v>43.042099999999998</v>
       </c>
       <c r="C241" s="1">
-        <v>22.7241</v>
+        <v>39.732500000000002</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E241" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>9</v>
@@ -6585,10 +6588,10 @@
     </row>
     <row r="242" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B242" s="1">
-        <v>63.9298</v>
+        <v>49.168599999999998</v>
       </c>
       <c r="C242" s="1">
         <v>22.7241</v>
@@ -6605,19 +6608,19 @@
     </row>
     <row r="243" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B243" s="1">
-        <v>68.7179</v>
+        <v>63.9298</v>
       </c>
       <c r="C243" s="1">
-        <v>40.957799999999999</v>
+        <v>22.7241</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E243" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>9</v>
@@ -6625,19 +6628,19 @@
     </row>
     <row r="244" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B244" s="1">
-        <v>43.042099999999998</v>
+        <v>68.7179</v>
       </c>
       <c r="C244" s="1">
-        <v>38.3324</v>
+        <v>41.360100000000003</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E244" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>9</v>
@@ -6645,13 +6648,13 @@
     </row>
     <row r="245" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B245" s="1">
         <v>43.042099999999998</v>
       </c>
       <c r="C245" s="1">
-        <v>30.037500000000001</v>
+        <v>38.732199999999999</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>5</v>
@@ -6665,19 +6668,19 @@
     </row>
     <row r="246" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B246" s="1">
-        <v>60.444899999999997</v>
+        <v>43.042099999999998</v>
       </c>
       <c r="C246" s="1">
-        <v>22.7241</v>
+        <v>30.4373</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E246" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>9</v>
@@ -6685,19 +6688,19 @@
     </row>
     <row r="247" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B247" s="1">
-        <v>43.042099999999998</v>
+        <v>61.244500000000002</v>
       </c>
       <c r="C247" s="1">
-        <v>29.037299999999998</v>
+        <v>22.7241</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E247" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>9</v>
@@ -6705,19 +6708,19 @@
     </row>
     <row r="248" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B248" s="1">
-        <v>57.378599999999999</v>
+        <v>43.042099999999998</v>
       </c>
       <c r="C248" s="1">
-        <v>22.7241</v>
+        <v>29.437100000000001</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E248" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>9</v>
@@ -6725,19 +6728,19 @@
     </row>
     <row r="249" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B249" s="1">
-        <v>68.7179</v>
+        <v>58.178199999999997</v>
       </c>
       <c r="C249" s="1">
-        <v>37.211300000000001</v>
+        <v>22.7241</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E249" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>9</v>
@@ -6745,19 +6748,19 @@
     </row>
     <row r="250" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B250" s="1">
-        <v>43.042099999999998</v>
+        <v>68.7179</v>
       </c>
       <c r="C250" s="1">
-        <v>37.3322</v>
+        <v>37.6113</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E250" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>9</v>
@@ -6765,19 +6768,19 @@
     </row>
     <row r="251" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B251" s="1">
-        <v>55.4754</v>
+        <v>43.042099999999998</v>
       </c>
       <c r="C251" s="1">
-        <v>48.3979</v>
+        <v>37.731999999999999</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E251" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>9</v>
@@ -6785,10 +6788,10 @@
     </row>
     <row r="252" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B252" s="1">
-        <v>58.524099999999997</v>
+        <v>55.4754</v>
       </c>
       <c r="C252" s="1">
         <v>48.3979</v>
@@ -6805,10 +6808,10 @@
     </row>
     <row r="253" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B253" s="1">
-        <v>62.292200000000001</v>
+        <v>58.124299999999998</v>
       </c>
       <c r="C253" s="1">
         <v>48.3979</v>
@@ -6825,19 +6828,19 @@
     </row>
     <row r="254" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B254" s="1">
-        <v>68.7179</v>
+        <v>61.892400000000002</v>
       </c>
       <c r="C254" s="1">
-        <v>29.754100000000001</v>
+        <v>48.3979</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E254" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>9</v>
@@ -6845,19 +6848,19 @@
     </row>
     <row r="255" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B255" s="1">
-        <v>51.745100000000001</v>
+        <v>68.7179</v>
       </c>
       <c r="C255" s="1">
-        <v>48.3979</v>
+        <v>30.1541</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E255" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>9</v>
@@ -6865,19 +6868,19 @@
     </row>
     <row r="256" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B256" s="1">
-        <v>43.042099999999998</v>
+        <v>52.544699999999999</v>
       </c>
       <c r="C256" s="1">
-        <v>34.9392</v>
+        <v>48.3979</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E256" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>9</v>
@@ -6885,13 +6888,13 @@
     </row>
     <row r="257" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B257" s="1">
-        <v>43.042099999999998</v>
+        <v>43.090299999999999</v>
       </c>
       <c r="C257" s="1">
-        <v>42.333399999999997</v>
+        <v>35.335500000000003</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>5</v>
@@ -6905,13 +6908,13 @@
     </row>
     <row r="258" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B258" s="1">
         <v>43.042099999999998</v>
       </c>
       <c r="C258" s="1">
-        <v>41.333199999999998</v>
+        <v>42.733199999999997</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>5</v>
@@ -6925,19 +6928,19 @@
     </row>
     <row r="259" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B259" s="1">
-        <v>47.7761</v>
+        <v>43.042099999999998</v>
       </c>
       <c r="C259" s="1">
-        <v>48.3979</v>
+        <v>41.732999999999997</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E259" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>9</v>
@@ -6945,10 +6948,10 @@
     </row>
     <row r="260" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B260" s="1">
-        <v>48.776400000000002</v>
+        <v>47.7761</v>
       </c>
       <c r="C260" s="1">
         <v>48.3979</v>
@@ -6965,13 +6968,13 @@
     </row>
     <row r="261" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B261" s="1">
-        <v>67.0458</v>
+        <v>48.776400000000002</v>
       </c>
       <c r="C261" s="1">
-        <v>10.686999999999999</v>
+        <v>48.3979</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>5</v>
@@ -6985,13 +6988,13 @@
     </row>
     <row r="262" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B262" s="1">
-        <v>21.883099999999999</v>
+        <v>67.0458</v>
       </c>
       <c r="C262" s="1">
-        <v>17.028400000000001</v>
+        <v>10.686999999999999</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>5</v>
@@ -7005,13 +7008,13 @@
     </row>
     <row r="263" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B263" s="1">
-        <v>65.045299999999997</v>
+        <v>21.883099999999999</v>
       </c>
       <c r="C263" s="1">
-        <v>10.686999999999999</v>
+        <v>17.028400000000001</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>5</v>
@@ -7025,19 +7028,19 @@
     </row>
     <row r="264" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B264" s="1">
-        <v>27.4833</v>
+        <v>65.045299999999997</v>
       </c>
       <c r="C264" s="1">
-        <v>51.1449</v>
+        <v>10.686999999999999</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E264" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>9</v>
@@ -7045,10 +7048,10 @@
     </row>
     <row r="265" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B265" s="1">
-        <v>28.483599999999999</v>
+        <v>27.4833</v>
       </c>
       <c r="C265" s="1">
         <v>51.1449</v>
@@ -7065,19 +7068,19 @@
     </row>
     <row r="266" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B266" s="1">
-        <v>23.525700000000001</v>
+        <v>28.483599999999999</v>
       </c>
       <c r="C266" s="1">
-        <v>21.861000000000001</v>
+        <v>51.1449</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E266" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>9</v>
@@ -7085,10 +7088,10 @@
     </row>
     <row r="267" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B267" s="1">
-        <v>24.526</v>
+        <v>23.525700000000001</v>
       </c>
       <c r="C267" s="1">
         <v>21.861000000000001</v>
@@ -7105,10 +7108,10 @@
     </row>
     <row r="268" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B268" s="1">
-        <v>26.526499999999999</v>
+        <v>24.526</v>
       </c>
       <c r="C268" s="1">
         <v>21.861000000000001</v>
@@ -7125,10 +7128,10 @@
     </row>
     <row r="269" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B269" s="1">
-        <v>25.526199999999999</v>
+        <v>26.526499999999999</v>
       </c>
       <c r="C269" s="1">
         <v>21.861000000000001</v>
@@ -7145,10 +7148,10 @@
     </row>
     <row r="270" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B270" s="1">
-        <v>22.525500000000001</v>
+        <v>25.526199999999999</v>
       </c>
       <c r="C270" s="1">
         <v>21.861000000000001</v>
@@ -7165,19 +7168,19 @@
     </row>
     <row r="271" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B271" s="1">
-        <v>105.2774</v>
+        <v>22.525500000000001</v>
       </c>
       <c r="C271" s="1">
-        <v>25.5427</v>
+        <v>21.861000000000001</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E271" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>9</v>
@@ -7185,13 +7188,13 @@
     </row>
     <row r="272" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B272" s="1">
         <v>105.2774</v>
       </c>
       <c r="C272" s="1">
-        <v>31.384699999999999</v>
+        <v>25.5427</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>5</v>
@@ -7205,19 +7208,19 @@
     </row>
     <row r="273" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B273" s="1">
-        <v>13.7424</v>
+        <v>105.2774</v>
       </c>
       <c r="C273" s="1">
-        <v>60.757800000000003</v>
+        <v>31.384699999999999</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E273" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>9</v>
@@ -7225,19 +7228,19 @@
     </row>
     <row r="274" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B274" s="1">
-        <v>105.2774</v>
+        <v>13.7424</v>
       </c>
       <c r="C274" s="1">
-        <v>19.700700000000001</v>
+        <v>60.757800000000003</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E274" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>9</v>
@@ -7245,19 +7248,19 @@
     </row>
     <row r="275" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B275" s="1">
-        <v>40.3416</v>
+        <v>105.2774</v>
       </c>
       <c r="C275" s="1">
-        <v>29.708300000000001</v>
+        <v>19.700700000000001</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E275" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>9</v>
@@ -7265,19 +7268,19 @@
     </row>
     <row r="276" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B276" s="1">
-        <v>66.045599999999993</v>
+        <v>40.3416</v>
       </c>
       <c r="C276" s="1">
-        <v>10.686999999999999</v>
+        <v>29.708300000000001</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E276" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>9</v>
@@ -7285,19 +7288,19 @@
     </row>
     <row r="277" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B277" s="1">
-        <v>36.315100000000001</v>
+        <v>66.045599999999993</v>
       </c>
       <c r="C277" s="1">
-        <v>36.459899999999998</v>
+        <v>10.686999999999999</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E277" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>9</v>
@@ -7305,19 +7308,19 @@
     </row>
     <row r="278" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B278" s="1">
-        <v>36.3108</v>
+        <v>36.315100000000001</v>
       </c>
       <c r="C278" s="1">
-        <v>38.658799999999999</v>
+        <v>36.459899999999998</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E278" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>9</v>
@@ -7325,13 +7328,13 @@
     </row>
     <row r="279" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B279" s="1">
-        <v>40.182499999999997</v>
+        <v>36.3108</v>
       </c>
       <c r="C279" s="1">
-        <v>51.1477</v>
+        <v>38.658799999999999</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>5</v>
@@ -7345,53 +7348,53 @@
     </row>
     <row r="280" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B280" s="1">
-        <v>55.88</v>
+        <v>40.182499999999997</v>
       </c>
       <c r="C280" s="1">
-        <v>58.42</v>
+        <v>51.1477</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E280" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>446</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B281" s="1">
-        <v>34.3309</v>
+        <v>55.88</v>
       </c>
       <c r="C281" s="1">
-        <v>46.847000000000001</v>
+        <v>58.42</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>5</v>
+        <v>446</v>
       </c>
       <c r="E281" s="1">
         <v>90</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>326</v>
+        <v>448</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B282" s="1">
-        <v>96.909599999999998</v>
+        <v>34.3309</v>
       </c>
       <c r="C282" s="1">
-        <v>44.2879</v>
+        <v>46.847000000000001</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>5</v>
@@ -7400,24 +7403,24 @@
         <v>90</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B283" s="1">
-        <v>20.801100000000002</v>
+        <v>96.909599999999998</v>
       </c>
       <c r="C283" s="1">
-        <v>14.8443</v>
+        <v>44.2879</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E283" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>328</v>
@@ -7425,39 +7428,39 @@
     </row>
     <row r="284" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B284" s="1">
-        <v>27.782800000000002</v>
+        <v>20.801100000000002</v>
       </c>
       <c r="C284" s="1">
-        <v>48.633099999999999</v>
+        <v>14.8443</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E284" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>48</v>
+        <v>328</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B285" s="1">
-        <v>69.417900000000003</v>
+        <v>27.782800000000002</v>
       </c>
       <c r="C285" s="1">
-        <v>27.453600000000002</v>
+        <v>48.633099999999999</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E285" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>48</v>
@@ -7465,13 +7468,13 @@
     </row>
     <row r="286" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B286" s="1">
         <v>69.417900000000003</v>
       </c>
       <c r="C286" s="1">
-        <v>31.054300000000001</v>
+        <v>27.8536</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>5</v>
@@ -7485,13 +7488,13 @@
     </row>
     <row r="287" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B287" s="1">
-        <v>42.342100000000002</v>
+        <v>69.417900000000003</v>
       </c>
       <c r="C287" s="1">
-        <v>43.633600000000001</v>
+        <v>31.4543</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>5</v>
@@ -7505,19 +7508,19 @@
     </row>
     <row r="288" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B288" s="1">
-        <v>44.875700000000002</v>
+        <v>42.342100000000002</v>
       </c>
       <c r="C288" s="1">
-        <v>49.097900000000003</v>
+        <v>44.0334</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E288" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>48</v>
@@ -7525,10 +7528,10 @@
     </row>
     <row r="289" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B289" s="1">
-        <v>46.475900000000003</v>
+        <v>44.875700000000002</v>
       </c>
       <c r="C289" s="1">
         <v>49.097900000000003</v>
@@ -7545,19 +7548,19 @@
     </row>
     <row r="290" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B290" s="1">
-        <v>24.183599999999998</v>
+        <v>46.475900000000003</v>
       </c>
       <c r="C290" s="1">
-        <v>17.728400000000001</v>
+        <v>49.097900000000003</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E290" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>48</v>
@@ -7565,19 +7568,19 @@
     </row>
     <row r="291" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B291" s="1">
-        <v>92.33</v>
+        <v>24.183599999999998</v>
       </c>
       <c r="C291" s="1">
-        <v>35.385199999999998</v>
+        <v>17.728400000000001</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E291" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>48</v>
@@ -7585,13 +7588,13 @@
     </row>
     <row r="292" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B292" s="1">
-        <v>101.9404</v>
+        <v>92.33</v>
       </c>
       <c r="C292" s="1">
-        <v>70.304199999999994</v>
+        <v>35.385199999999998</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>5</v>
@@ -7600,24 +7603,24 @@
         <v>180</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B293" s="1">
-        <v>93.261700000000005</v>
+        <v>101.9404</v>
       </c>
       <c r="C293" s="1">
-        <v>17.114799999999999</v>
+        <v>70.304199999999994</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E293" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>82</v>
@@ -7625,33 +7628,33 @@
     </row>
     <row r="294" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B294" s="1">
-        <v>95.767700000000005</v>
+        <v>93.261700000000005</v>
       </c>
       <c r="C294" s="1">
-        <v>18.020800000000001</v>
+        <v>17.114799999999999</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E294" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B295" s="1">
         <v>95.767700000000005</v>
       </c>
       <c r="C295" s="1">
-        <v>29.704799999999999</v>
+        <v>18.020800000000001</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>5</v>
@@ -7665,19 +7668,19 @@
     </row>
     <row r="296" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B296" s="1">
-        <v>48.372</v>
+        <v>95.767700000000005</v>
       </c>
       <c r="C296" s="1">
-        <v>68.813699999999997</v>
+        <v>29.704799999999999</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E296" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>98</v>
@@ -7685,10 +7688,10 @@
     </row>
     <row r="297" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B297" s="1">
-        <v>44.371000000000002</v>
+        <v>48.372</v>
       </c>
       <c r="C297" s="1">
         <v>68.813699999999997</v>
@@ -7705,10 +7708,10 @@
     </row>
     <row r="298" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B298" s="1">
-        <v>40.369999999999997</v>
+        <v>44.371000000000002</v>
       </c>
       <c r="C298" s="1">
         <v>68.813699999999997</v>
@@ -7725,19 +7728,19 @@
     </row>
     <row r="299" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B299" s="1">
-        <v>105.2774</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="C299" s="1">
-        <v>29.578600000000002</v>
+        <v>68.813699999999997</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E299" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>98</v>
@@ -7745,19 +7748,19 @@
     </row>
     <row r="300" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B300" s="1">
-        <v>17.652699999999999</v>
+        <v>105.2774</v>
       </c>
       <c r="C300" s="1">
-        <v>48.837299999999999</v>
+        <v>29.578600000000002</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E300" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>98</v>
@@ -7765,19 +7768,19 @@
     </row>
     <row r="301" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B301" s="1">
-        <v>105.2774</v>
+        <v>17.652699999999999</v>
       </c>
       <c r="C301" s="1">
-        <v>23.736000000000001</v>
+        <v>48.837299999999999</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E301" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>98</v>
@@ -7785,13 +7788,13 @@
     </row>
     <row r="302" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B302" s="1">
         <v>105.2774</v>
       </c>
       <c r="C302" s="1">
-        <v>17.897300000000001</v>
+        <v>23.736000000000001</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>5</v>
@@ -7805,19 +7808,19 @@
     </row>
     <row r="303" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B303" s="1">
-        <v>95.767700000000005</v>
+        <v>105.2774</v>
       </c>
       <c r="C303" s="1">
-        <v>22.862500000000001</v>
+        <v>17.897300000000001</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E303" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>98</v>
@@ -7825,19 +7828,19 @@
     </row>
     <row r="304" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B304" s="1">
-        <v>14.795500000000001</v>
+        <v>95.767700000000005</v>
       </c>
       <c r="C304" s="1">
-        <v>69.933800000000005</v>
+        <v>22.862500000000001</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E304" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>98</v>
@@ -7845,13 +7848,13 @@
     </row>
     <row r="305" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B305" s="1">
-        <v>16.9268</v>
+        <v>14.795500000000001</v>
       </c>
       <c r="C305" s="1">
-        <v>58.249299999999998</v>
+        <v>69.933800000000005</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>5</v>
@@ -7865,19 +7868,19 @@
     </row>
     <row r="306" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B306" s="1">
-        <v>15.879099999999999</v>
+        <v>16.9268</v>
       </c>
       <c r="C306" s="1">
-        <v>25.1082</v>
+        <v>58.249299999999998</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E306" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>98</v>
@@ -7885,13 +7888,13 @@
     </row>
     <row r="307" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B307" s="1">
         <v>15.879099999999999</v>
       </c>
       <c r="C307" s="1">
-        <v>29.109200000000001</v>
+        <v>25.1082</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>5</v>
@@ -7905,13 +7908,13 @@
     </row>
     <row r="308" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B308" s="1">
-        <v>95.767700000000005</v>
+        <v>15.879099999999999</v>
       </c>
       <c r="C308" s="1">
-        <v>28.704499999999999</v>
+        <v>29.109200000000001</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>5</v>
@@ -7925,13 +7928,13 @@
     </row>
     <row r="309" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B309" s="1">
-        <v>30.026399999999999</v>
+        <v>95.767700000000005</v>
       </c>
       <c r="C309" s="1">
-        <v>9.1095000000000006</v>
+        <v>28.704499999999999</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>5</v>
@@ -7945,19 +7948,19 @@
     </row>
     <row r="310" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B310" s="1">
-        <v>52.160400000000003</v>
+        <v>30.026399999999999</v>
       </c>
       <c r="C310" s="1">
-        <v>12.4498</v>
+        <v>9.1095000000000006</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E310" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>98</v>
@@ -7965,19 +7968,19 @@
     </row>
     <row r="311" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B311" s="1">
-        <v>35.714700000000001</v>
+        <v>52.160400000000003</v>
       </c>
       <c r="C311" s="1">
-        <v>17.1983</v>
+        <v>12.4498</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E311" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>98</v>
@@ -7985,19 +7988,19 @@
     </row>
     <row r="312" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B312" s="1">
-        <v>42.902099999999997</v>
+        <v>35.714700000000001</v>
       </c>
       <c r="C312" s="1">
-        <v>14.3048</v>
+        <v>17.1983</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E312" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>98</v>
@@ -8005,13 +8008,13 @@
     </row>
     <row r="313" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B313" s="1">
-        <v>7.1383999999999999</v>
+        <v>42.902099999999997</v>
       </c>
       <c r="C313" s="1">
-        <v>75.301900000000003</v>
+        <v>14.3048</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>5</v>
@@ -8025,13 +8028,13 @@
     </row>
     <row r="314" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B314" s="1">
         <v>7.1383999999999999</v>
       </c>
       <c r="C314" s="1">
-        <v>72.301100000000005</v>
+        <v>75.301900000000003</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>5</v>
@@ -8045,19 +8048,19 @@
     </row>
     <row r="315" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B315" s="1">
-        <v>95.767700000000005</v>
+        <v>7.1383999999999999</v>
       </c>
       <c r="C315" s="1">
-        <v>17.020499999999998</v>
+        <v>72.301100000000005</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E315" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>98</v>
@@ -8065,19 +8068,19 @@
     </row>
     <row r="316" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B316" s="1">
-        <v>20.2852</v>
+        <v>95.767700000000005</v>
       </c>
       <c r="C316" s="1">
-        <v>45.150500000000001</v>
+        <v>17.020499999999998</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E316" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>98</v>
@@ -8085,19 +8088,19 @@
     </row>
     <row r="317" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B317" s="1">
-        <v>75.143100000000004</v>
+        <v>20.2852</v>
       </c>
       <c r="C317" s="1">
-        <v>63.4863</v>
+        <v>45.150500000000001</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E317" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>98</v>
@@ -8105,13 +8108,13 @@
     </row>
     <row r="318" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B318" s="1">
-        <v>75.079400000000007</v>
+        <v>75.143100000000004</v>
       </c>
       <c r="C318" s="1">
-        <v>67.390299999999996</v>
+        <v>63.4863</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>5</v>
@@ -8125,19 +8128,19 @@
     </row>
     <row r="319" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B319" s="1">
-        <v>97.367599999999996</v>
+        <v>75.079400000000007</v>
       </c>
       <c r="C319" s="1">
-        <v>71.358500000000006</v>
+        <v>67.390299999999996</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E319" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>98</v>
@@ -8145,13 +8148,13 @@
     </row>
     <row r="320" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B320" s="1">
         <v>97.367599999999996</v>
       </c>
       <c r="C320" s="1">
-        <v>72.358800000000002</v>
+        <v>71.358500000000006</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>5</v>
@@ -8165,13 +8168,13 @@
     </row>
     <row r="321" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B321" s="1">
         <v>97.367599999999996</v>
       </c>
       <c r="C321" s="1">
-        <v>73.358999999999995</v>
+        <v>72.358800000000002</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>5</v>
@@ -8185,13 +8188,13 @@
     </row>
     <row r="322" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B322" s="1">
         <v>97.367599999999996</v>
       </c>
       <c r="C322" s="1">
-        <v>74.359300000000005</v>
+        <v>73.358999999999995</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>5</v>
@@ -8205,13 +8208,13 @@
     </row>
     <row r="323" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B323" s="1">
         <v>97.367599999999996</v>
       </c>
       <c r="C323" s="1">
-        <v>75.359499999999997</v>
+        <v>74.359300000000005</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>5</v>
@@ -8225,13 +8228,13 @@
     </row>
     <row r="324" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B324" s="1">
         <v>97.367599999999996</v>
       </c>
       <c r="C324" s="1">
-        <v>76.359800000000007</v>
+        <v>75.359499999999997</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>5</v>
@@ -8245,19 +8248,19 @@
     </row>
     <row r="325" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B325" s="1">
-        <v>37.649900000000002</v>
+        <v>97.367599999999996</v>
       </c>
       <c r="C325" s="1">
-        <v>32.334699999999998</v>
+        <v>76.359800000000007</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E325" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>98</v>
@@ -8265,19 +8268,19 @@
     </row>
     <row r="326" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B326" s="1">
-        <v>40.3416</v>
+        <v>37.649900000000002</v>
       </c>
       <c r="C326" s="1">
-        <v>28.708100000000002</v>
+        <v>32.334699999999998</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E326" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>98</v>
@@ -8285,19 +8288,19 @@
     </row>
     <row r="327" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B327" s="1">
-        <v>19.109400000000001</v>
+        <v>40.3416</v>
       </c>
       <c r="C327" s="1">
-        <v>21.6477</v>
+        <v>28.708100000000002</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E327" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>98</v>
@@ -8305,13 +8308,13 @@
     </row>
     <row r="328" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B328" s="1">
-        <v>28.5852</v>
+        <v>19.109400000000001</v>
       </c>
       <c r="C328" s="1">
-        <v>27.7866</v>
+        <v>21.6477</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>5</v>
@@ -8325,13 +8328,13 @@
     </row>
     <row r="329" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B329" s="1">
-        <v>15.879099999999999</v>
+        <v>28.5852</v>
       </c>
       <c r="C329" s="1">
-        <v>26.1084</v>
+        <v>27.7866</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>5</v>
@@ -8345,13 +8348,13 @@
     </row>
     <row r="330" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B330" s="1">
-        <v>28.5852</v>
+        <v>15.879099999999999</v>
       </c>
       <c r="C330" s="1">
-        <v>28.786799999999999</v>
+        <v>26.1084</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>5</v>
@@ -8365,13 +8368,13 @@
     </row>
     <row r="331" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B331" s="1">
-        <v>15.879099999999999</v>
+        <v>28.5852</v>
       </c>
       <c r="C331" s="1">
-        <v>27.108699999999999</v>
+        <v>28.786799999999999</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>5</v>
@@ -8385,19 +8388,19 @@
     </row>
     <row r="332" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B332" s="1">
-        <v>11.741899999999999</v>
+        <v>15.879099999999999</v>
       </c>
       <c r="C332" s="1">
-        <v>60.757800000000003</v>
+        <v>27.108699999999999</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E332" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>98</v>
@@ -8405,10 +8408,10 @@
     </row>
     <row r="333" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B333" s="1">
-        <v>10.7417</v>
+        <v>11.741899999999999</v>
       </c>
       <c r="C333" s="1">
         <v>60.757800000000003</v>
@@ -8425,13 +8428,13 @@
     </row>
     <row r="334" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B334" s="1">
-        <v>13.795199999999999</v>
+        <v>10.7417</v>
       </c>
       <c r="C334" s="1">
-        <v>69.933800000000005</v>
+        <v>60.757800000000003</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>5</v>
@@ -8445,10 +8448,10 @@
     </row>
     <row r="335" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B335" s="1">
-        <v>12.795</v>
+        <v>13.795199999999999</v>
       </c>
       <c r="C335" s="1">
         <v>69.933800000000005</v>
@@ -8465,19 +8468,19 @@
     </row>
     <row r="336" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B336" s="1">
-        <v>68.0715</v>
+        <v>12.795</v>
       </c>
       <c r="C336" s="1">
-        <v>14.2448</v>
+        <v>69.933800000000005</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E336" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>98</v>
@@ -8485,13 +8488,13 @@
     </row>
     <row r="337" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B337" s="1">
         <v>68.0715</v>
       </c>
       <c r="C337" s="1">
-        <v>13.2446</v>
+        <v>14.2448</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>5</v>
@@ -8505,19 +8508,19 @@
     </row>
     <row r="338" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B338" s="1">
-        <v>56.035200000000003</v>
+        <v>68.0715</v>
       </c>
       <c r="C338" s="1">
-        <v>50.843400000000003</v>
+        <v>13.2446</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E338" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>98</v>
@@ -8525,10 +8528,10 @@
     </row>
     <row r="339" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B339" s="1">
-        <v>55.0349</v>
+        <v>56.035200000000003</v>
       </c>
       <c r="C339" s="1">
         <v>50.843400000000003</v>
@@ -8545,10 +8548,10 @@
     </row>
     <row r="340" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B340" s="1">
-        <v>54.034700000000001</v>
+        <v>55.0349</v>
       </c>
       <c r="C340" s="1">
         <v>50.843400000000003</v>
@@ -8565,10 +8568,10 @@
     </row>
     <row r="341" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B341" s="1">
-        <v>53.034399999999998</v>
+        <v>54.034700000000001</v>
       </c>
       <c r="C341" s="1">
         <v>50.843400000000003</v>
@@ -8585,10 +8588,10 @@
     </row>
     <row r="342" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B342" s="1">
-        <v>52.034199999999998</v>
+        <v>53.034399999999998</v>
       </c>
       <c r="C342" s="1">
         <v>50.843400000000003</v>
@@ -8605,19 +8608,19 @@
     </row>
     <row r="343" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B343" s="1">
-        <v>37.649900000000002</v>
+        <v>52.034199999999998</v>
       </c>
       <c r="C343" s="1">
-        <v>33.335000000000001</v>
+        <v>50.843400000000003</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E343" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>98</v>
@@ -8625,13 +8628,13 @@
     </row>
     <row r="344" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B344" s="1">
-        <v>58.895499999999998</v>
+        <v>37.649900000000002</v>
       </c>
       <c r="C344" s="1">
-        <v>15.3772</v>
+        <v>33.335000000000001</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>5</v>
@@ -8645,13 +8648,13 @@
     </row>
     <row r="345" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B345" s="1">
         <v>58.895499999999998</v>
       </c>
       <c r="C345" s="1">
-        <v>14.376899999999999</v>
+        <v>15.3772</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>5</v>
@@ -8665,19 +8668,19 @@
     </row>
     <row r="346" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B346" s="1">
-        <v>41.712600000000002</v>
+        <v>58.895499999999998</v>
       </c>
       <c r="C346" s="1">
-        <v>4.3226000000000004</v>
+        <v>14.376899999999999</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E346" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>98</v>
@@ -8685,19 +8688,19 @@
     </row>
     <row r="347" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B347" s="1">
-        <v>19.109400000000001</v>
+        <v>41.712600000000002</v>
       </c>
       <c r="C347" s="1">
-        <v>22.6479</v>
+        <v>4.3226000000000004</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E347" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>98</v>
@@ -8705,19 +8708,19 @@
     </row>
     <row r="348" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B348" s="1">
-        <v>29.527200000000001</v>
+        <v>19.109400000000001</v>
       </c>
       <c r="C348" s="1">
-        <v>21.861000000000001</v>
+        <v>22.6479</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E348" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>98</v>
@@ -8725,13 +8728,13 @@
     </row>
     <row r="349" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B349" s="1">
-        <v>75.156300000000002</v>
+        <v>29.527200000000001</v>
       </c>
       <c r="C349" s="1">
-        <v>16.477699999999999</v>
+        <v>21.861000000000001</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>5</v>
@@ -8745,13 +8748,13 @@
     </row>
     <row r="350" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B350" s="1">
-        <v>83.865700000000004</v>
+        <v>75.156300000000002</v>
       </c>
       <c r="C350" s="1">
-        <v>16.459700000000002</v>
+        <v>16.477699999999999</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>5</v>
@@ -8765,19 +8768,19 @@
     </row>
     <row r="351" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B351" s="1">
-        <v>94.975700000000003</v>
+        <v>83.865700000000004</v>
       </c>
       <c r="C351" s="1">
-        <v>39.887900000000002</v>
+        <v>16.459700000000002</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E351" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>98</v>
@@ -8785,19 +8788,19 @@
     </row>
     <row r="352" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B352" s="1">
-        <v>73.886300000000006</v>
+        <v>94.975700000000003</v>
       </c>
       <c r="C352" s="1">
-        <v>16.477699999999999</v>
+        <v>39.887900000000002</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E352" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>98</v>
@@ -8805,10 +8808,10 @@
     </row>
     <row r="353" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B353" s="1">
-        <v>76.426299999999998</v>
+        <v>73.886300000000006</v>
       </c>
       <c r="C353" s="1">
         <v>16.477699999999999</v>
@@ -8825,13 +8828,13 @@
     </row>
     <row r="354" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B354" s="1">
-        <v>82.595699999999994</v>
+        <v>76.426299999999998</v>
       </c>
       <c r="C354" s="1">
-        <v>16.459700000000002</v>
+        <v>16.477699999999999</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>5</v>
@@ -8845,19 +8848,19 @@
     </row>
     <row r="355" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B355" s="1">
-        <v>41.1828</v>
+        <v>82.595699999999994</v>
       </c>
       <c r="C355" s="1">
-        <v>51.1477</v>
+        <v>16.459700000000002</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E355" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>98</v>
@@ -8865,19 +8868,19 @@
     </row>
     <row r="356" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B356" s="1">
-        <v>77.696299999999994</v>
+        <v>41.1828</v>
       </c>
       <c r="C356" s="1">
-        <v>16.477699999999999</v>
+        <v>51.1477</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E356" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>98</v>
@@ -8885,19 +8888,19 @@
     </row>
     <row r="357" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B357" s="1">
-        <v>16.401</v>
+        <v>77.696299999999994</v>
       </c>
       <c r="C357" s="1">
-        <v>17.0322</v>
+        <v>16.477699999999999</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E357" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>98</v>
@@ -8905,19 +8908,19 @@
     </row>
     <row r="358" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B358" s="1">
-        <v>87.675700000000006</v>
+        <v>16.401</v>
       </c>
       <c r="C358" s="1">
-        <v>16.459700000000002</v>
+        <v>17.0322</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E358" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>98</v>
@@ -8925,10 +8928,10 @@
     </row>
     <row r="359" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B359" s="1">
-        <v>85.1357</v>
+        <v>87.675700000000006</v>
       </c>
       <c r="C359" s="1">
         <v>16.459700000000002</v>
@@ -8945,10 +8948,10 @@
     </row>
     <row r="360" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B360" s="1">
-        <v>86.405699999999996</v>
+        <v>85.1357</v>
       </c>
       <c r="C360" s="1">
         <v>16.459700000000002</v>
@@ -8965,13 +8968,13 @@
     </row>
     <row r="361" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B361" s="1">
-        <v>82.595699999999994</v>
+        <v>86.405699999999996</v>
       </c>
       <c r="C361" s="1">
-        <v>27.947600000000001</v>
+        <v>16.459700000000002</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>5</v>
@@ -8985,10 +8988,10 @@
     </row>
     <row r="362" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B362" s="1">
-        <v>86.405699999999996</v>
+        <v>82.595699999999994</v>
       </c>
       <c r="C362" s="1">
         <v>27.947600000000001</v>
@@ -9005,13 +9008,13 @@
     </row>
     <row r="363" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B363" s="1">
-        <v>73.886300000000006</v>
+        <v>86.405699999999996</v>
       </c>
       <c r="C363" s="1">
-        <v>27.965699999999998</v>
+        <v>27.947600000000001</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>5</v>
@@ -9025,10 +9028,10 @@
     </row>
     <row r="364" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B364" s="1">
-        <v>75.156300000000002</v>
+        <v>73.886300000000006</v>
       </c>
       <c r="C364" s="1">
         <v>27.965699999999998</v>
@@ -9045,10 +9048,10 @@
     </row>
     <row r="365" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B365" s="1">
-        <v>77.696299999999994</v>
+        <v>75.156300000000002</v>
       </c>
       <c r="C365" s="1">
         <v>27.965699999999998</v>
@@ -9065,10 +9068,10 @@
     </row>
     <row r="366" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B366" s="1">
-        <v>76.426299999999998</v>
+        <v>77.696299999999994</v>
       </c>
       <c r="C366" s="1">
         <v>27.965699999999998</v>
@@ -9085,13 +9088,13 @@
     </row>
     <row r="367" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B367" s="1">
-        <v>87.675700000000006</v>
+        <v>76.426299999999998</v>
       </c>
       <c r="C367" s="1">
-        <v>27.947600000000001</v>
+        <v>27.965699999999998</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>5</v>
@@ -9105,10 +9108,10 @@
     </row>
     <row r="368" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B368" s="1">
-        <v>83.865700000000004</v>
+        <v>87.675700000000006</v>
       </c>
       <c r="C368" s="1">
         <v>27.947600000000001</v>
@@ -9125,10 +9128,10 @@
     </row>
     <row r="369" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B369" s="1">
-        <v>85.1357</v>
+        <v>83.865700000000004</v>
       </c>
       <c r="C369" s="1">
         <v>27.947600000000001</v>
@@ -9145,19 +9148,19 @@
     </row>
     <row r="370" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B370" s="1">
-        <v>73.283799999999999</v>
+        <v>85.1357</v>
       </c>
       <c r="C370" s="1">
-        <v>70.515699999999995</v>
+        <v>27.947600000000001</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E370" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>98</v>
@@ -9165,13 +9168,13 @@
     </row>
     <row r="371" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B371" s="1">
-        <v>26.784600000000001</v>
+        <v>73.283799999999999</v>
       </c>
       <c r="C371" s="1">
-        <v>31.808199999999999</v>
+        <v>70.515699999999995</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>5</v>
@@ -9185,13 +9188,13 @@
     </row>
     <row r="372" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B372" s="1">
         <v>26.784600000000001</v>
       </c>
       <c r="C372" s="1">
-        <v>32.808399999999999</v>
+        <v>31.808199999999999</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>5</v>
@@ -9205,19 +9208,19 @@
     </row>
     <row r="373" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B373" s="1">
-        <v>14.2011</v>
+        <v>26.784600000000001</v>
       </c>
       <c r="C373" s="1">
-        <v>17.0322</v>
+        <v>32.808399999999999</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E373" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>98</v>
@@ -9225,19 +9228,19 @@
     </row>
     <row r="374" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B374" s="1">
-        <v>94.975700000000003</v>
+        <v>14.2011</v>
       </c>
       <c r="C374" s="1">
-        <v>43.187899999999999</v>
+        <v>17.0322</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E374" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>98</v>
@@ -9245,13 +9248,13 @@
     </row>
     <row r="375" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B375" s="1">
         <v>94.975700000000003</v>
       </c>
       <c r="C375" s="1">
-        <v>42.088099999999997</v>
+        <v>43.187899999999999</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>5</v>
@@ -9265,13 +9268,13 @@
     </row>
     <row r="376" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B376" s="1">
         <v>94.975700000000003</v>
       </c>
       <c r="C376" s="1">
-        <v>44.2879</v>
+        <v>42.088099999999997</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>5</v>
@@ -9285,13 +9288,13 @@
     </row>
     <row r="377" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B377" s="1">
         <v>94.975700000000003</v>
       </c>
       <c r="C377" s="1">
-        <v>37.688000000000002</v>
+        <v>44.2879</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>5</v>
@@ -9305,13 +9308,13 @@
     </row>
     <row r="378" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B378" s="1">
         <v>94.975700000000003</v>
       </c>
       <c r="C378" s="1">
-        <v>36.587899999999998</v>
+        <v>37.688000000000002</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>5</v>
@@ -9325,13 +9328,13 @@
     </row>
     <row r="379" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B379" s="1">
         <v>94.975700000000003</v>
       </c>
       <c r="C379" s="1">
-        <v>35.487900000000003</v>
+        <v>36.587899999999998</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>5</v>
@@ -9345,13 +9348,13 @@
     </row>
     <row r="380" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B380" s="1">
-        <v>82.442599999999999</v>
+        <v>94.975700000000003</v>
       </c>
       <c r="C380" s="1">
-        <v>37.979100000000003</v>
+        <v>35.487900000000003</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>5</v>
@@ -9365,19 +9368,19 @@
     </row>
     <row r="381" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B381" s="1">
-        <v>28.469100000000001</v>
+        <v>82.442599999999999</v>
       </c>
       <c r="C381" s="1">
-        <v>43.670999999999999</v>
+        <v>37.979100000000003</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E381" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>98</v>
@@ -9385,19 +9388,19 @@
     </row>
     <row r="382" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B382" s="1">
-        <v>17.652699999999999</v>
+        <v>28.469100000000001</v>
       </c>
       <c r="C382" s="1">
-        <v>47.8371</v>
+        <v>43.670999999999999</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E382" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>98</v>
@@ -9405,19 +9408,19 @@
     </row>
     <row r="383" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B383" s="1">
-        <v>14.742699999999999</v>
+        <v>17.652699999999999</v>
       </c>
       <c r="C383" s="1">
-        <v>60.757800000000003</v>
+        <v>47.8371</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E383" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>98</v>
@@ -9425,19 +9428,19 @@
     </row>
     <row r="384" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B384" s="1">
-        <v>107.5433</v>
+        <v>14.742699999999999</v>
       </c>
       <c r="C384" s="1">
-        <v>77.388199999999998</v>
+        <v>60.757800000000003</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E384" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>98</v>
@@ -9445,19 +9448,19 @@
     </row>
     <row r="385" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B385" s="1">
-        <v>20.801100000000002</v>
+        <v>107.5433</v>
       </c>
       <c r="C385" s="1">
-        <v>17.0322</v>
+        <v>77.388199999999998</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E385" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>98</v>
@@ -9465,10 +9468,10 @@
     </row>
     <row r="386" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B386" s="1">
-        <v>19.701000000000001</v>
+        <v>20.801100000000002</v>
       </c>
       <c r="C386" s="1">
         <v>17.0322</v>
@@ -9485,10 +9488,10 @@
     </row>
     <row r="387" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B387" s="1">
-        <v>18.601199999999999</v>
+        <v>19.701000000000001</v>
       </c>
       <c r="C387" s="1">
         <v>17.0322</v>
@@ -9505,10 +9508,10 @@
     </row>
     <row r="388" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B388" s="1">
-        <v>13.101100000000001</v>
+        <v>18.601199999999999</v>
       </c>
       <c r="C388" s="1">
         <v>17.0322</v>
@@ -9525,10 +9528,10 @@
     </row>
     <row r="389" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B389" s="1">
-        <v>12.000999999999999</v>
+        <v>13.101100000000001</v>
       </c>
       <c r="C389" s="1">
         <v>17.0322</v>
@@ -9545,19 +9548,19 @@
     </row>
     <row r="390" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B390" s="1">
-        <v>68.0715</v>
+        <v>12.000999999999999</v>
       </c>
       <c r="C390" s="1">
-        <v>15.245100000000001</v>
+        <v>17.0322</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E390" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>98</v>
@@ -9565,13 +9568,13 @@
     </row>
     <row r="391" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B391" s="1">
-        <v>44.469000000000001</v>
+        <v>68.0715</v>
       </c>
       <c r="C391" s="1">
-        <v>45.808900000000001</v>
+        <v>15.245100000000001</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>5</v>
@@ -9580,15 +9583,15 @@
         <v>0</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B392" s="1">
-        <v>43.267600000000002</v>
+        <v>44.469000000000001</v>
       </c>
       <c r="C392" s="1">
         <v>45.808900000000001</v>
@@ -9605,22 +9608,22 @@
     </row>
     <row r="393" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B393" s="1">
-        <v>55.88</v>
+        <v>43.267600000000002</v>
       </c>
       <c r="C393" s="1">
-        <v>35.56</v>
+        <v>45.808900000000001</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E393" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>440</v>
+        <v>160</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">

--- a/MFG/V1.3_20230605/SMT/STARRYSKY_XY_JLC.xlsx
+++ b/MFG/V1.3_20230605/SMT/STARRYSKY_XY_JLC.xlsx
@@ -1752,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
-      <selection activeCell="A560" sqref="A560"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
